--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A202"/>
+  <dimension ref="A1:A226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,1349 +500,1517 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Augury Raven', ['{3}{U}', 'Creature — Bird', 'Flying', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Arni Slays the Troll', ['{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Target creature you control fights up to one target creature you don’t control.', 'II — Add {R}. Put two +1/+1 counters on up to one target creature you control.', 'III — You gain life equal to the greatest power among creatures you control.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Axgard Cavalry', ['{1}{R}', 'Creature — Dwarf Berserker', '{T}: Target creature gains haste until end of turn.', '2/2'])</t>
+          <t>('Ascendant Spirit', ['{U}', 'Snow Creature — Spirit', '{S}{S}: Ascendant Spirit becomes a Spirit Warrior with base power and toughness 2/3.', '{S}{S}{S}: If Ascendant Spirit is a Warrior, put a flying counter on it and it becomes a Spirit Warrior angel with base power and toughness 4/4.', '{S}{S}{S}{S}: If Ascendant Spirit is an Angel, put two +1/+1 counters on it and it gains “Whenever this creature deals damage to a player, draw a card.”', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('Axguard Armory', ['Land', 'Axguard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}: Sacrifice Axguard Armory: Search your library for an Aura card and/or Equipment card, reveal them, put them into your hand, then shuffle your library'])</t>
+          <t>('Augury Raven', ['{3}{U}', 'Creature — Bird', 'Flying', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('Barkchannel Pathway', ['Land', '{T}: Add {G}.', 'Tidechannel Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>('Avalanche Caller', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with haste and hexproof until end of turn. It’s still a land. (A creature with hexproof can’t be the target of spells or abilities your opponents control.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Basalt Ravager', ['{3}{R}', 'Creature — Giant Wizard', 'When Basalt Ravager enters the battlefield, it deals X damage to any target, where X is the greatest number of creatures you control that have a creature type in common.', '4/2'])</t>
+          <t>('Axgard Armory', ['Land', 'Axgard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}: Sacrifice Axgard Armory: Search your library for an Aura card and/or Equipment card, reveal them, put them into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token thats a copy of it.'])</t>
+          <t>('Axgard Braggart', ['{3}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Untap Axgard Braggart. Put a +1/+1 counter on it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
+          <t>('Axgard Cavalry', ['{1}{R}', 'Creature — Dwarf Berserker', '{T}: Target creature gains haste until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
+          <t>('Barkchannel Pathway', ['Land', '{T}: Add {G}.', 'Tidechannel Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('"Beasts of Littjara"', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifters you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature you control with power 4 or greater deals damage equal to its power to that permanent.'])</t>
+          <t>('Basalt Ravager', ['{3}{R}', 'Creature — Giant Wizard', 'When Basalt Ravager enters the battlefield, it deals X damage to any target, where X is the greatest number of creatures you control that have a creature type in common.', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token thats a copy of it.'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('"Big-Booty Ox"', ['{1}{W}', 'Creature — Ox', 'You may use “Big-Booty Ox”‘s toughness to crew rather than its power.', '0/6'])</t>
+          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('Binding the Old Gods', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target nonland permanent an opponent controls.', 'II — Search your library for a Forest card, put it onto the battlefield tapped, then shuffle your library.', 'III — Creatures you control gain deathtouch until end of turn.'])</t>
+          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
+          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
+          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is one mana from a snow source.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
+          <t>('Beskir Shieldmate', ['{1}{W}', 'Creature — Human Warrior', 'When Beskir Shieldmate dies, create a 1/1 white Human Warrior creature token.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
+          <t>('Binding the Old Gods', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target nonland permanent an opponent controls.', 'II — Search your library for a Forest card, put it onto the battlefield tapped, then shuffle your library.', 'III — Creatures you control gain deathtouch until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
+          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
+          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('"Breakneck Berserker"', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
+          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you cast a sorcery.'])</t>
+          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
+          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent choses of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
+          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
+          <t>('"Breakneck Berserker"', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
+          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
+          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
+          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
+          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('"Cyclone Summoner"', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When “Cyclone Summoner” enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
+          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
+          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
+          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('"Demonic Lightning"', ['{2}{R}', 'Instant', '“Demonic Lightning” deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
+          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
+          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
+          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
+          <t>('"Demonic Lightning"', ['{2}{R}', 'Instant', '“Demonic Lightning” deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('"Draugr Omenreader"', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell cards or to cast an instant or sorcery spell.', '1/3'])</t>
+          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
+          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
+          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
+          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
+          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
+          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
+          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
+          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
+          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
+          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
+          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
+          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
+          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
+          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
+          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>("Firja's Judgment", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with less power than this creature.”', 'III — Angels you control gain double strike until end of turn.'])</t>
+          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('"Frigid-Sea Traveler"', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When “Frigid-Sea Traveler” enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step.', '4/4'])</t>
+          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Saga — Enchantment', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
+          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
+          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
+          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
+          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
+          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with less power than this creature.”', 'III — Angels you control gain double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
+          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
+          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
+          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
+          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
+          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
+          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
+          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'You may use Giant Ox’s toughness to crew rather than its power.', '0/6'])</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
+          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
+          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
+          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
+          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
+          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
+          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
+          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
+          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
+          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
+          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
+          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
+          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('"Jack and Jill Storm the Hill"', ['{1}{G}{W}', 'Saga — Enchantment', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
+          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
+          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
+          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
+          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
+          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
+          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
+          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
+          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
+          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
+          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
+          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
+          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
+          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
+          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
+          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
+          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('"My Larger Pony"', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
+          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('"Mystic Reflection"', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers would enter the battlefield, they enter the battlefield as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
+          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
+          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
+          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
+          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
+          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
+          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('"Raiding Karve"', ['{3}', 'Artifact — Vehicle', 'Whenever “Raiding Karve” attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
+          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
+          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
+          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
+          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
+          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
+          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('"Reidane, God of Justice"', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', '"Reidane\'s Shield"', '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell unless its controller pays {1}.'])</t>
+          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
+          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('"Resolute Valkyrie"', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
+          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
+          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
+          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
+          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
+          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
+          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
+          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
+          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('"Reidane, God of Justice"', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', '"Reidane\'s Shield"', '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
+          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell.'])</t>
+          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('"Resolute Valkyrie"', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('"Shirtless Snow Wizard"', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with haste and hexproof until end of turn. It’s still a land.', '1/3'])</t>
+          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
+          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
+          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
+          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('"Ski Resort Bandit"', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
+          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
+          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell.'])</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
+          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
+          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
+          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
+          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
+          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
+          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to it owner’s hand.”', 'Equipped creature get +3/+0 as long as its legendary.', 'Equip {1}{R}'])</t>
+          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player search their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature you control with power 4 or greater deals damage equal to its power to that permanent.'])</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
+        <is>
+          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player search their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>('"Writing Werewolf Fanfics"', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control from your hand without paying its mana cost. If you don’t, scry 1.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valyrie.', '1/3'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:A275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,1531 +486,1874 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('Arctic Treeline', ['Snow Land — Forest Plains', '({T}: Add {G} or {W}.)', 'Arctic Treeline enters the battlefield tapped.'])</t>
+          <t>('Arachnoform', ['{1}{G}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2, has reach, and is every creature type.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('Armed and Armored', ['{1}{W}', 'Instant', 'Vehicles you control become artifact creatures until end of turn. Choose a Dwarf you control. Attach any number of Equipment you control to it.'])</t>
+          <t>('Arctic Treeline', ['Snow Land — Forest Plains', '({T}: Add {G} or {W}.)', 'Arctic Treeline enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Arni Slays the Troll', ['{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Target creature you control fights up to one target creature you don’t control.', 'II — Add {R}. Put two +1/+1 counters on up to one target creature you control.', 'III — You gain life equal to the greatest power among creatures you control.'])</t>
+          <t>('Armed and Armored', ['{1}{W}', 'Instant', 'Vehicles you control become artifact creatures until end of turn. Choose a Dwarf you control. Attach any number of Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Ascendant Spirit', ['{U}', 'Snow Creature — Spirit', '{S}{S}: Ascendant Spirit becomes a Spirit Warrior with base power and toughness 2/3.', '{S}{S}{S}: If Ascendant Spirit is a Warrior, put a flying counter on it and it becomes a Spirit Warrior angel with base power and toughness 4/4.', '{S}{S}{S}{S}: If Ascendant Spirit is an Angel, put two +1/+1 counters on it and it gains “Whenever this creature deals damage to a player, draw a card.”', '1/1'])</t>
+          <t>('Arni Brokenbrow', ['{2}{R}', 'Legendary Creature — Human Berserker', 'Haste', 'Boast — {1}: You may change Arni Brokenbrow’s base power to 1 plus the greatest power among other creatures you control until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('Augury Raven', ['{3}{U}', 'Creature — Bird', 'Flying', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Arni Slays the Troll', ['{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Target creature you control fights up to one target creature you don’t control.', 'II — Add {R}. Put two +1/+1 counters on up to one target creature you control.', 'III — You gain life equal to the greatest power among creatures you control.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('Avalanche Caller', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with haste and hexproof until end of turn. It’s still a land. (A creature with hexproof can’t be the target of spells or abilities your opponents control.)', '1/3'])</t>
+          <t>('Ascendant Spirit', ['{U}', 'Snow Creature — Spirit', '{S}{S}: Ascendant Spirit becomes a Spirit Warrior with base power and toughness 2/3.', '{S}{S}{S}: If Ascendant Spirit is a Warrior, put a flying counter on it and it becomes a Spirit Warrior Angel with base power and toughness 4/4.', '{S}{S}{S}{S}: If Ascendant Spirit is an Angel, put two +1/+1 counters on it and it gains “Whenever this creature deals combat damage to a player, draw a card.”', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Axgard Armory', ['Land', 'Axgard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}: Sacrifice Axgard Armory: Search your library for an Aura card and/or Equipment card, reveal them, put them into your hand, then shuffle your library.'])</t>
+          <t>('Ascent of the Worthy', ['{1}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Choose a creature you control. Until your next turn, all damage that would be dealt to creatures you control is dealt to that creature instead.', 'III — Return target creature card from your graveyard to the battlefield with a flying counter on it. That creature is an Angel Warrior in addition to its other types.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('Axgard Braggart', ['{3}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Untap Axgard Braggart. Put a +1/+1 counter on it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
+          <t>('Augury Raven', ['{3}{U}', 'Creature — Bird', 'Flying', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Axgard Cavalry', ['{1}{R}', 'Creature — Dwarf Berserker', '{T}: Target creature gains haste until end of turn.', '2/2'])</t>
+          <t>('Avalanche Caller', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with haste and hexproof until end of turn. It’s still a land. (A creature with hexproof can’t be the target of spells or abilities your opponents control.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Barkchannel Pathway', ['Land', '{T}: Add {G}.', 'Tidechannel Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>('Axgard Armory', ['Land', 'Axgard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}: Sacrifice Axgard Armory: Search your library for an Aura card and/or Equipment card, reveal them, put them into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Basalt Ravager', ['{3}{R}', 'Creature — Giant Wizard', 'When Basalt Ravager enters the battlefield, it deals X damage to any target, where X is the greatest number of creatures you control that have a creature type in common.', '4/2'])</t>
+          <t>('Axgard Braggart', ['{3}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Untap Axgard Braggart. Put a +1/+1 counter on it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token thats a copy of it.'])</t>
+          <t>('Axgard Cavalry', ['{1}{R}', 'Creature — Dwarf Berserker', '{T}: Target creature gains haste until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
+          <t>('Barkchannel Pathway', ['Land', '{T}: Add {G}.', 'Tidechannel Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
+          <t>('Basalt Ravager', ['{3}{R}', 'Creature — Giant Wizard', 'When Basalt Ravager enters the battlefield, it deals X damage to any target, where X is the greatest number of creatures you control that have a creature type in common.', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Battershield Warrior', ['{2}{W}', 'Creature — Human Warrior', 'Boast — {1}{W}: Creatures you control get +1/+1 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is one mana from a snow source.)', '4/4'])</t>
+          <t>('Battlefield Raptor', ['{W}', 'Creature — Bird', 'Flying, first strike', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Beskir Shieldmate', ['{1}{W}', 'Creature — Human Warrior', 'When Beskir Shieldmate dies, create a 1/1 white Human Warrior creature token.', '2/1'])</t>
+          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token thats a copy of it.'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Binding the Old Gods', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target nonland permanent an opponent controls.', 'II — Search your library for a Forest card, put it onto the battlefield tapped, then shuffle your library.', 'III — Creatures you control gain deathtouch until end of turn.'])</t>
+          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
+          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
+          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
+          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is mana from a snow source.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
+          <t>('Beskir Shieldmate', ['{1}{W}', 'Creature — Human Warrior', 'When Beskir Shieldmate dies, create a 1/1 white Human Warrior creature token.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
+          <t>('"Big Stabby"', ['{3}{G}{G}', 'Creature — Elephant', 'Trample', 'Whenever a permanent you control becomes the target of a spell or ability an opponent controls, you may draw a card.', 'Foretell {2}{G}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '6/5'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
+          <t>('Binding the Old Gods', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target nonland permanent an opponent controls.', 'II — Search your library for a Forest card, put it onto the battlefield tapped, then shuffle your library.', 'III — Creatures you control gain deathtouch until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('"Breakneck Berserker"', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
+          <t>('"Birgi, God of... Something"', ['{2}{R}', 'Legendary Creature — God', '(The front face of this card has not been previewed yet.)', '?/?', '"Harnfel, Horn of Abundance"', '{4}{R}', 'Legendary Artifact', 'Discard a card: Exile the top two cards of your library. You may play those cards this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you cast a sorcery.'])</t>
+          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
+          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
+          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
+          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell.'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
+          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
+          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
+          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
+          <t>('Breakneck Berserker', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
+          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
+          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
+          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
+          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('"Demonic Lightning"', ['{2}{R}', 'Instant', '“Demonic Lightning” deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
+          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
+          <t>('Colossal Plow', ['{2}', 'Artifact — Vehicle', 'Whenever Colossal Plow attacks, add {W}{W}{W} and you gain 3 life. Until end of turn, you don’t lose this mana as steps and phases end.', 'Crew 6 (Tap any number of creatures you control with total power 6 or more: This Vehicle becomes an artifact creature until end of turn.)', '6/3'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
+          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
+          <t>('Cosmos Elixir', ['{4}', 'Artifact', 'At the beginning of your end step, draw a card if your life total is greater than your starting life total. Otherwise, you gain 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
+          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
+          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
+          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Demon Bolt', ['{2}{R}', 'Instant', 'Demon Bolt deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
+          <t>('Demonic Gifts', ['{1}{B}', 'Instant', 'Until end of turn, target creature gets +2/+0 and gains “When this creature dies, return it to the battlefield under its owner’s control.”'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
+          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
+          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
+          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
+          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
+          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
+          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
+          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
+          <t>('Draugr Thought-Thief', ['{2}{U}', 'Creature — Zombie Rogue', 'When Draugr Thought-Thief enters the battlefield, look at the top card of target player’s library. You may put that card into their graveyard.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Saga — Enchantment', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
+          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
+          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
+          <t>('"Dwarven Hammer"', ['{2}{R}', 'Artifact — Equipment', 'When “Dwarven Hammer” enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach “Dwarven Hammer” to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
+          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with less power than this creature.”', 'III — Angels you control gain double strike until end of turn.'])</t>
+          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
+          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
+          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
+          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
+          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
+          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'You may use Giant Ox’s toughness to crew rather than its power.', '0/6'])</t>
+          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
+          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
+          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
+          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
+          <t>('Fearless Pup', ['{R}', 'Creature — Wolf', 'First strike', 'Boast — {2}{R}: Fearless Pup gets +2/+0 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
+          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
+          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
+          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
+          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with power less than this creature’s power.”', 'III — Angels you control gain double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
+          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Frenzied Raider', ['{1}{R}', 'Creature — Demon Berserker', 'Whenever you activate a boast ability, put a +1/+1 counter on Frenzied Raider.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
+          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
+          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
+          <t>('"Frozen Blessing"', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
+          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
+          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
+          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
+          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'Giant Ox crews Vehicles using its toughness rather than its power.', '0/6'])</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
+          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
+          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
+          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
+          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
+          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('"Glorious Protector"', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When “Glorious Protector” enters the battlefield, you may exile any number of non-Angel creatures you control until “Glorious Protector” leaves the battlefield.', 'Foretell {2}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
+          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
+          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
+          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
+          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
+          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
+          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
+          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
+          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
+          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
+          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
+          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
+          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
+          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
+          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
+          <t>('Horizon Seeker', ['{2}{G}', 'Creature — Human Warrior', 'Boast — {1}{G}: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
+          <t>('"Horrible Encounter"', ['{2}{B}{B}', 'Sorcery', 'Creatures that aren’t the creature type of your choice get -3/-3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
+          <t>('Icehide Troll', ['{2}{G}', 'Snow Creature — Troll Warrior', '{S}{S}: Icehide Troll gets +2/+0 and gains indestructible until end of turn. Tap it. (Damage and effects that say “destroy” don’t destroy it. {S} can be paid with one mana from a snow source.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
+          <t>('Immersturm Skullcairn', ['Land', 'Immersturm Skullcairn enters the battlefield tapped.', '{T}: Add {B}.', '{1}{B}{R}{R}, {T}, Sacrifice Immersturm Skullcairn: It deals 3 damage to target player. That player discards a card. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
+          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
+          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
+          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
+          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
+          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
+          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
+          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
+          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
+          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
+          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
+          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
+          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
+          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('"Reidane, God of Justice"', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', '"Reidane\'s Shield"', '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell unless its controller pays {1}.'])</t>
+          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
+          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
+          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('"Resolute Valkyrie"', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
+          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
+          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
+          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
+          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
+          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
+          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
+          <t>('"Master Skald"', ['{4}{W}', 'Creature — Dwarf Warrior', 'When “Master Skald” enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
+          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('"My D&amp;D OC"', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
+          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
+          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell.'])</t>
+          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
+          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
+          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
+          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield. (To mill a card, a player puts the top card of their library into their graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('"Priest of the Dam"', ['{1}{B}', 'Snow Creature — Zombie Cleric', '{T}, Sacrifice “Priest of the Dam”: Target creature gets -X/-X until end of turn, where X is the number of snow lands you control. Activate this ability only any time you could cast a sorcery.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Provoke the Trolls', ['{3}{R}', 'Instant', 'Provoke the Trolls deals 3 damage to any target. If a creature is dealt damage this way, it gets +5/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
+          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
+          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
+          <t>('"Ravenous Lindwurm"', ['{4}{G}{G}', 'Creature — Wurm', 'When “Ravenous Lindwurm” enters the battlefield, you gain 4 life.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
+          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
+          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
+          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
+          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
+          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
+          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature you control with power 4 or greater deals damage equal to its power to that permanent.'])</t>
+          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)'])</t>
+          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player search their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+          <t>('Skull Raid', ['{3}{B}', 'Sorcery', 'Target opponent discards two cards. If fewer than two cards were discarded this way, you draw cards equal to the difference.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('"Writing Werewolf Fanfics"', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control from your hand without paying its mana cost. If you don’t, scry 1.'])</t>
+          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
+        <is>
+          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>('Stalwart Valkyrie', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>('Svella, Ice Shaper', ['{1}{R}{G}', 'Legendary Snow Creature — Troll Warrior', '{3}, {T}: Create a colorless snow artifact token named Icy Manalith with “{T}: Add one mana of any color.”', '{6}{R}{G}, {T}: Look at the top four cards of your library. You may cast a spell from among them without paying its mana cost. Put the rest on the bottom of your library in a random order.', '2/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature with power 4 or greater you control deals damage equal to its power to that permanent.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps or phases end.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>('Tyrite Sanctum', ['Land', '{T}: Add {C}.', '{2}, {T}: Target legendary creature becomes a God in addition to its other types. Put a +1/+1 counter on it.', '{4}, {T}, Sacrifice Tyrite Sanctum: Put an indestructible counter on target God.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>('"Valley of Lights"', ['Snow Land', '“Valley of Lights” enters the battlefield tapped.', 'As “Valley of Lights” enters the battlefield, choose a color.', '{T}: Add one mana of the chosen color.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player searches their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>('"War Horn Blessing"', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
         <is>
           <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valyrie.', '1/3'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:A256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,1531 +486,1741 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('Arctic Treeline', ['Snow Land — Forest Plains', '({T}: Add {G} or {W}.)', 'Arctic Treeline enters the battlefield tapped.'])</t>
+          <t>('Arachnoform', ['{1}{G}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2, has reach, and is every creature type.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('Armed and Armored', ['{1}{W}', 'Instant', 'Vehicles you control become artifact creatures until end of turn. Choose a Dwarf you control. Attach any number of Equipment you control to it.'])</t>
+          <t>('Arctic Treeline', ['Snow Land — Forest Plains', '({T}: Add {G} or {W}.)', 'Arctic Treeline enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Arni Slays the Troll', ['{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Target creature you control fights up to one target creature you don’t control.', 'II — Add {R}. Put two +1/+1 counters on up to one target creature you control.', 'III — You gain life equal to the greatest power among creatures you control.'])</t>
+          <t>('Armed and Armored', ['{1}{W}', 'Instant', 'Vehicles you control become artifact creatures until end of turn. Choose a Dwarf you control. Attach any number of Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Ascendant Spirit', ['{U}', 'Snow Creature — Spirit', '{S}{S}: Ascendant Spirit becomes a Spirit Warrior with base power and toughness 2/3.', '{S}{S}{S}: If Ascendant Spirit is a Warrior, put a flying counter on it and it becomes a Spirit Warrior angel with base power and toughness 4/4.', '{S}{S}{S}{S}: If Ascendant Spirit is an Angel, put two +1/+1 counters on it and it gains “Whenever this creature deals damage to a player, draw a card.”', '1/1'])</t>
+          <t>('Arni Brokenbrow', ['{2}{R}', 'Legendary Creature — Human Berserker', 'Haste', 'Boast — {1}: You may change Arni Brokenbow’s base power to 1 plus the greatest power among creatures you control until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('Augury Raven', ['{3}{U}', 'Creature — Bird', 'Flying', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Arni Slays the Troll', ['{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Target creature you control fights up to one target creature you don’t control.', 'II — Add {R}. Put two +1/+1 counters on up to one target creature you control.', 'III — You gain life equal to the greatest power among creatures you control.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('Avalanche Caller', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with haste and hexproof until end of turn. It’s still a land. (A creature with hexproof can’t be the target of spells or abilities your opponents control.)', '1/3'])</t>
+          <t>('Ascendant Spirit', ['{U}', 'Snow Creature — Spirit', '{S}{S}: Ascendant Spirit becomes a Spirit Warrior with base power and toughness 2/3.', '{S}{S}{S}: If Ascendant Spirit is a Warrior, put a flying counter on it and it becomes a Spirit Warrior Angel with base power and toughness 4/4.', '{S}{S}{S}{S}: If Ascendant Spirit is an Angel, put two +1/+1 counters on it and it gains “Whenever this creature deals combat damage to a player, draw a card.”', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Axgard Armory', ['Land', 'Axgard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}: Sacrifice Axgard Armory: Search your library for an Aura card and/or Equipment card, reveal them, put them into your hand, then shuffle your library.'])</t>
+          <t>('Ascent of the Worthy', ['{1}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Choose a creature you control. Until your next turn, all damage that would be dealt to creatures you control is dealt to that creature instead.', 'III — Return target creature card from your graveyard to the battlefield with a flying counter on it. That creature is an Angel Warrior in addition to its other types.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('Axgard Braggart', ['{3}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Untap Axgard Braggart. Put a +1/+1 counter on it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
+          <t>('Augury Raven', ['{3}{U}', 'Creature — Bird', 'Flying', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Axgard Cavalry', ['{1}{R}', 'Creature — Dwarf Berserker', '{T}: Target creature gains haste until end of turn.', '2/2'])</t>
+          <t>('Avalanche Caller', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with haste and hexproof until end of turn. It’s still a land. (A creature with hexproof can’t be the target of spells or abilities your opponents control.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Barkchannel Pathway', ['Land', '{T}: Add {G}.', 'Tidechannel Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>('Axgard Armory', ['Land', 'Axgard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}: Sacrifice Axgard Armory: Search your library for an Aura card and/or Equipment card, reveal them, put them into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Basalt Ravager', ['{3}{R}', 'Creature — Giant Wizard', 'When Basalt Ravager enters the battlefield, it deals X damage to any target, where X is the greatest number of creatures you control that have a creature type in common.', '4/2'])</t>
+          <t>('Axgard Braggart', ['{3}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Untap Axgard Braggart. Put a +1/+1 counter on it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token thats a copy of it.'])</t>
+          <t>('Axgard Cavalry', ['{1}{R}', 'Creature — Dwarf Berserker', '{T}: Target creature gains haste until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
+          <t>('Barkchannel Pathway', ['Land', '{T}: Add {G}.', 'Tidechannel Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
+          <t>('Basalt Ravager', ['{3}{R}', 'Creature — Giant Wizard', 'When Basalt Ravager enters the battlefield, it deals X damage to any target, where X is the greatest number of creatures you control that have a creature type in common.', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Battershield Warrior', ['{2}{W}', 'Creature — Human Warrior', 'Boast — {1}{W}: Creatures you control get +1/+1 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is one mana from a snow source.)', '4/4'])</t>
+          <t>('Battlefield Raptor', ['{W}', 'Creature — Bird', 'Flying, first strike', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Beskir Shieldmate', ['{1}{W}', 'Creature — Human Warrior', 'When Beskir Shieldmate dies, create a 1/1 white Human Warrior creature token.', '2/1'])</t>
+          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token thats a copy of it.'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Binding the Old Gods', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target nonland permanent an opponent controls.', 'II — Search your library for a Forest card, put it onto the battlefield tapped, then shuffle your library.', 'III — Creatures you control gain deathtouch until end of turn.'])</t>
+          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
+          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
+          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
+          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is one mana from a snow source.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
+          <t>('Beskir Shieldmate', ['{1}{W}', 'Creature — Human Warrior', 'When Beskir Shieldmate dies, create a 1/1 white Human Warrior creature token.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
+          <t>('"Big Stabby"', ['{3}{G}{G}', 'Creature — Elephant', 'Trample', 'Whenever a permanent you control becomes the target of a spell or ability an opponent controls, you may draw a card.', 'Foretell {2}{G}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '6/5'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
+          <t>('Binding the Old Gods', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target nonland permanent an opponent controls.', 'II — Search your library for a Forest card, put it onto the battlefield tapped, then shuffle your library.', 'III — Creatures you control gain deathtouch until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('"Breakneck Berserker"', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
+          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you cast a sorcery.'])</t>
+          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
+          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
+          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell.'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
+          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
+          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
+          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
+          <t>('"Breakneck Berserker"', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
+          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
+          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
+          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
+          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
+          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('"Demonic Lightning"', ['{2}{R}', 'Instant', '“Demonic Lightning” deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
+          <t>('Colossal Plow', ['{2}', 'Artifact — Vehicle', 'Whenever Colossal Plow attacks, add {W}{W}{W} and you gain 3 life. Until end of turn, you don’t lose this mana as steps and phases end.', 'Crew 6 (Tap any number of creatures you control with total power 6 or more: This Vehicle becomes an artifact creature until end of turn.)', '6/3'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
+          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
+          <t>('Cosmos Elixir', ['{4}', 'Artifact', 'At the beginning of your end step, draw a card if your life total is greater than your starting life total. Otherwise, you gain 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
+          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
+          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
+          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
+          <t>('"Demonic Lightning"', ['{2}{R}', 'Instant', '“Demonic Lightning” deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
+          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
+          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
+          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
+          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
+          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
+          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
+          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
+          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
+          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Saga — Enchantment', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
+          <t>('"Dwarven Hammer"', ['{2}{R}', 'Artifact — Equipment', 'When “Dwarven Hammer” enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach “Dwarven Hammer” to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
+          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
+          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
+          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with less power than this creature.”', 'III — Angels you control gain double strike until end of turn.'])</t>
+          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
+          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
+          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
+          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
+          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
+          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'You may use Giant Ox’s toughness to crew rather than its power.', '0/6'])</t>
+          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
+          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
+          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
+          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
+          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with less power than this creature.”', 'III — Angels you control gain double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
+          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
+          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
+          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
+          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
+          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
+          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
+          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'You may use Giant Ox’s toughness to crew rather than its power.', '0/6'])</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
+          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
+          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
+          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
+          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
+          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
+          <t>('"Glorious Protector"', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When “Glorious Protector” enters the battlefield, you may exile any number of non-Angel creatures you control until “Glorious Protector” leaves the battlefield.', 'Foretell {2}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
+          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
+          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
+          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
+          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
+          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
+          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
+          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
+          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
+          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
+          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
+          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
+          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
+          <t>('"Horrible Encounter"', ['{2}{B}{B}', 'Sorcery', 'Creatures that aren’t the creature type of your choice get -3/-3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
+          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
+          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
+          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
+          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
+          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
+          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
+          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
+          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
+          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
+          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
+          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
+          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
+          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
+          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
+          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
+          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
+          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
+          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
+          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
+          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
+          <t>('"Master Skald"', ['{4}{W}', 'Creature — Dwarf Warrior', 'When “Master Skald” enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('"Reidane, God of Justice"', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', '"Reidane\'s Shield"', '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell unless its controller pays {1}.'])</t>
+          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
+          <t>('"My D&amp;D OC"', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('"Resolute Valkyrie"', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
+          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
+          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
+          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
+          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
+          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
+          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
+          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
+          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
+          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
+          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell.'])</t>
+          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
+          <t>('"Ravenous Lindwurm"', ['{4}{G}{G}', 'Creature — Wurm', 'When “Ravenous Lindwurm” enters the battlefield, you gain 4 life.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
+          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
+          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
+          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('"Resolute Valkyrie"', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
+          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
+          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
+          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
+          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
+          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
+          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
+          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
+          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
+          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature you control with power 4 or greater deals damage equal to its power to that permanent.'])</t>
+          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)'])</t>
+          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player search their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('"Writing Werewolf Fanfics"', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control from your hand without paying its mana cost. If you don’t, scry 1.'])</t>
+          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature you control with power 4 or greater deals damage equal to its power to that permanent.'])</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
+        <is>
+          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player search their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>('"War Horn Blessing"', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valyrie.', '1/3'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A256"/>
+  <dimension ref="A1:A277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Arni Brokenbrow', ['{2}{R}', 'Legendary Creature — Human Berserker', 'Haste', 'Boast — {1}: You may change Arni Brokenbow’s base power to 1 plus the greatest power among creatures you control until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
+          <t>('Arni Brokenbrow', ['{2}{R}', 'Legendary Creature — Human Berserker', 'Haste', 'Boast — {1}: You may change Arni Brokenbrow’s base power to 1 plus the greatest power among other creatures you control until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is one mana from a snow source.)', '4/4'])</t>
+          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is mana from a snow source.)', '4/4'])</t>
         </is>
       </c>
     </row>
@@ -654,1573 +654,1720 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
+          <t>('"Birgi, God of Tales"', ['{2}{R}', 'Legendary Creature — God', 'Whenever you cast a spell, add {R}. Until end of turn, you don’t lose this mana as steps or phases end.', 'You may activate boast abilities of creatures you control twice per turn instead of once per turn.', '3/3', '"Harnfel, Horn of Abundance"', '{4}{R}', 'Legendary Artifact', 'Discard a card: Exile the top two cards of your library. You may play those cards this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
+          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
+          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell.'])</t>
+          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
+          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell.'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
+          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
+          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('"Breakneck Berserker"', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
+          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you cast a sorcery.'])</t>
+          <t>('Breakneck Berserker', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
+          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
+          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
+          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
+          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
+          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
+          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
+          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Colossal Plow', ['{2}', 'Artifact — Vehicle', 'Whenever Colossal Plow attacks, add {W}{W}{W} and you gain 3 life. Until end of turn, you don’t lose this mana as steps and phases end.', 'Crew 6 (Tap any number of creatures you control with total power 6 or more: This Vehicle becomes an artifact creature until end of turn.)', '6/3'])</t>
+          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
+          <t>('Colossal Plow', ['{2}', 'Artifact — Vehicle', 'Whenever Colossal Plow attacks, add {W}{W}{W} and you gain 3 life. Until end of turn, you don’t lose this mana as steps and phases end.', 'Crew 6 (Tap any number of creatures you control with total power 6 or more: This Vehicle becomes an artifact creature until end of turn.)', '6/3'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Cosmos Elixir', ['{4}', 'Artifact', 'At the beginning of your end step, draw a card if your life total is greater than your starting life total. Otherwise, you gain 2 life.'])</t>
+          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Cosmos Elixir', ['{4}', 'Artifact', 'At the beginning of your end step, draw a card if your life total is greater than your starting life total. Otherwise, you gain 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
+          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
+          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
+          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('"Demonic Lightning"', ['{2}{R}', 'Instant', '“Demonic Lightning” deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
+          <t>('Demon Bolt', ['{2}{R}', 'Instant', 'Demon Bolt deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
+          <t>('Demonic Gifts', ['{1}{B}', 'Instant', 'Until end of turn, target creature gets +2/+0 and gains “When this creature dies, return it to the battlefield under its owner’s control.”'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
+          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
+          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
+          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
+          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
+          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
+          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
+          <t>('Draugr Thought-Thief', ['{2}{U}', 'Creature — Zombie Rogue', 'When Draugr Thought-Thief enters the battlefield, look at the top card of target player’s library. You may put that card into their graveyard.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('"Dwarven Hammer"', ['{2}{R}', 'Artifact — Equipment', 'When “Dwarven Hammer” enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach “Dwarven Hammer” to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
+          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Dream Devourer', ['{1}{B}', 'Creature — Demon Cleric', 'Each nonland card in your hand without foretell has foretell. Its foretell cost is equal to its mana cost reduced by {2}. (During your turn, you may pay {2} and exile it from your hand face down. Cast it on a later turn for its foretell cost.)', 'Whenever you foretell a card, Dream Devourer gets +2/+0 until end of turn.', '0/3'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
+          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
+          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
+          <t>('"Dwarven Hammer"', ['{2}{R}', 'Artifact — Equipment', 'When “Dwarven Hammer” enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach “Dwarven Hammer” to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
+          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
+          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
+          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
+          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
+          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
+          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
+          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
+          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
+          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
+          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with less power than this creature.”', 'III — Angels you control gain double strike until end of turn.'])</t>
+          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Fearless Pup', ['{R}', 'Creature — Wolf', 'First strike', 'Boast — {2}{R}: Fearless Pup gets +2/+0 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
+          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
+          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with power less than this creature’s power.”', 'III — Angels you control gain double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
+          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
+          <t>('Frenzied Raider', ['{1}{R}', 'Creature — Demon Berserker', 'Whenever you activate a boast ability, put a +1/+1 counter on Frenzied Raider.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
+          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'You may use Giant Ox’s toughness to crew rather than its power.', '0/6'])</t>
+          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
+          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
+          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
+          <t>('"Frozen Blessing"', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
+          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
+          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
+          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
+          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'Giant Ox crews Vehicles using its toughness rather than its power.', '0/6'])</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('"Glorious Protector"', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When “Glorious Protector” enters the battlefield, you may exile any number of non-Angel creatures you control until “Glorious Protector” leaves the battlefield.', 'Foretell {2}{W}'])</t>
+          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
+          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
+          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
+          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
+          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
+          <t>('"Glorious Protector"', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When “Glorious Protector” enters the battlefield, you may exile any number of non-Angel creatures you control until “Glorious Protector” leaves the battlefield.', 'Foretell {2}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
+          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
+          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
+          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
+          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
+          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
+          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('"Horrible Encounter"', ['{2}{B}{B}', 'Sorcery', 'Creatures that aren’t the creature type of your choice get -3/-3 until end of turn.'])</t>
+          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
+          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
+          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
+          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
+          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
+          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
+          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Horizon Seeker', ['{2}{G}', 'Creature — Human Warrior', 'Boast — {1}{G}: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
+          <t>('"Horrible Encounter"', ['{2}{B}{B}', 'Sorcery', 'Creatures that aren’t the creature type of your choice get -3/-3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
+          <t>('Icehide Troll', ['{2}{G}', 'Snow Creature — Troll Warrior', '{S}{S}: Icehide Troll gets +2/+0 and gains indestructible until end of turn. Tap it. (Damage and effects that say “destroy” don’t destroy it. {S} can be paid with one mana from a snow source.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
+          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
+          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
+          <t>('Immersturm Raider', ['{1}{R}', 'Creature — Demon Berserker', 'When Immersturm Raider enters the battlefield, you may discard a card. If you do, draw a card.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
+          <t>('Immersturm Skullcairn', ['Land', 'Immersturm Skullcairn enters the battlefield tapped.', '{T}: Add {B}.', '{1}{B}{R}{R}, {T}, Sacrifice Immersturm Skullcairn: It deals 3 damage to target player. That player discards a card. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
+          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
+          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
+          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
+          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
+          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
+          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
+          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
+          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
+          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
+          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
+          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('"Master Skald"', ['{4}{W}', 'Creature — Dwarf Warrior', 'When “Master Skald” enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
+          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
+          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('"My D&amp;D OC"', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
+          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
+          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
+          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
+          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
+          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
+          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
+          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('"Master Skald"', ['{4}{W}', 'Creature — Dwarf Warrior', 'When “Master Skald” enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
+          <t>('"My D&amp;D OC"', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
+          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
+          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
+          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('"Ravenous Lindwurm"', ['{4}{G}{G}', 'Creature — Wurm', 'When “Ravenous Lindwurm” enters the battlefield, you gain 4 life.', '6/6'])</t>
+          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
+          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
+          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
+          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
+          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield. (To mill a card, a player puts the top card of their library into their graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
+          <t>('"Priest of the Dam"', ['{1}{B}', 'Snow Creature — Zombie Cleric', '{T}, Sacrifice “Priest of the Dam”: Target creature gets -X/-X until end of turn, where X is the number of snow lands you control. Activate this ability only any time you could cast a sorcery.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('"Resolute Valkyrie"', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
+          <t>('Provoke the Trolls', ['{3}{R}', 'Instant', 'Provoke the Trolls deals 3 damage to any target. If a creature is dealt damage this way, it gets +5/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
+          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
+          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
+          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
+          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
+          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
+          <t>('"Ravenous Lindwurm"', ['{4}{G}{G}', 'Creature — Wurm', 'When “Ravenous Lindwurm” enters the battlefield, you gain 4 life.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
+          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
+          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
+          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
+          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
+          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
+          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
+          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
+          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
+          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
+          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
+          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
+          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
+          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
+          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
+          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
+          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
+          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
+          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
+          <t>('Skull Raid', ['{3}{B}', 'Sorcery', 'Target opponent discards two cards. If fewer than two cards were discarded this way, you draw cards equal to the difference.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
+          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature you control with power 4 or greater deals damage equal to its power to that permanent.'])</t>
+          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
+          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+          <t>('Stalwart Valkyrie', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
+          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+          <t>('Svella, Ice Shaper', ['{1}{R}{G}', 'Legendary Snow Creature — Troll Warrior', '{3}, {T}: Create a colorless snow artifact token named Icy Manalith with “{T}: Add one mana of any color.”', '{6}{R}{G}, {T}: Look at the top four cards of your library. You may cast a spell from among them without paying its mana cost. Put the rest on the bottom of your library in a random order.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
+          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player search their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature with power 4 or greater you control deals damage equal to its power to that permanent.'])</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps or phases end.'])</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>('"War Horn Blessing"', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+          <t>('Tyrite Sanctum', ['Land', '{T}: Add {C}.', '{2}, {T}: Target legendary creature becomes a God in addition to its other types. Put a +1/+1 counter on it.', '{4}, {T}, Sacrifice Tyrite Sanctum: Put an indestructible counter on target God.'])</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
+        <is>
+          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>('"Valley of Lights"', ['Snow Land', '“Valley of Lights” enters the battlefield tapped.', 'As “Valley of Lights” enters the battlefield, choose a color.', '{T}: Add one mana of the chosen color.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player searches their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>('"War Horn Blessing"', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
         <is>
           <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valyrie.', '1/3'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A277"/>
+  <dimension ref="A1:A293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,42 +605,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
+          <t>('Battle Mammoth', ['{3}{G}{G}', 'Creature — Elephant', 'Trample', 'Whenever a permanent you control becomes the target of a spell or ability an opponent controls, you may draw a card.', 'Foretell {2}{G}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '6/5'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
+          <t>('Battle of Frost and Fire', ['{3}{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Battle of Frost and Fire deals 4 damage to each non-Giant creature and each planeswalker.', 'II — Scry 3.', 'III — Whenever you cast a spell with converted mana cost 5 or greater this turn, draw two cards, then discard a card.'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Bearded Axe', ['{2}{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1 for each Dwarf, Equipment, and/or Vehicle you control.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is mana from a snow source.)', '4/4'])</t>
+          <t>('Behold the Multiverse', ['{3}{U}', 'Instant', 'Scry 2, then draw two cards.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Beskir Shieldmate', ['{1}{W}', 'Creature — Human Warrior', 'When Beskir Shieldmate dies, create a 1/1 white Human Warrior creature token.', '2/1'])</t>
+          <t>('Berg Strider', ['{4}{U}', 'Snow Creature — Giant Wizard', 'When Berg Strider enters the battlefield, tap target artifact or creature an opponent controls. If {S} was spent to cast this spell, that permanent doesn’t untap during its controller’s next untap step. ({S} is mana from a snow source.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('"Big Stabby"', ['{3}{G}{G}', 'Creature — Elephant', 'Trample', 'Whenever a permanent you control becomes the target of a spell or ability an opponent controls, you may draw a card.', 'Foretell {2}{G}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '6/5'])</t>
+          <t>('Beskir Shieldmate', ['{1}{W}', 'Creature — Human Warrior', 'When Beskir Shieldmate dies, create a 1/1 white Human Warrior creature token.', '2/1'])</t>
         </is>
       </c>
     </row>
@@ -654,1720 +654,1832 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('"Birgi, God of Tales"', ['{2}{R}', 'Legendary Creature — God', 'Whenever you cast a spell, add {R}. Until end of turn, you don’t lose this mana as steps or phases end.', 'You may activate boast abilities of creatures you control twice per turn instead of once per turn.', '3/3', '"Harnfel, Horn of Abundance"', '{4}{R}', 'Legendary Artifact', 'Discard a card: Exile the top two cards of your library. You may play those cards this turn.'])</t>
+          <t>('Birgi, God of Storytelling', ['{2}{R}', 'Legendary Creature — God', 'Whenever you cast a spell, add {R}. Until end of turn, you don’t lose this mana as steps and phases end.', 'Creatures you control can boast twice during each of your turns rather than once.', '3/3', 'Harnfel, Horn of Bounty', '{4}{R}', 'Legendary Artifact', 'Discard a card: Exile the top two cards of your library. You may play those cards this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
+          <t>('Blessing of Frost', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
+          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
+          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell.'])</t>
+          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
+          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
+          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
+          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Breakneck Berserker', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
+          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Breakneck Berserker', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
+          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
+          <t>('Brinebarrow Intruder', ['{U}', 'Creature — Human Rogue', 'Flash', 'When Brinebarrow Intruder enters the battlefield, target creature an opponent controls gets -2/-0 until end of turn.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
+          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
+          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
+          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
+          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
+          <t>('"Chill Out"', ['{2}{U}', 'Snow Artifact', '{S}, {T}: Tap target artifact or creature. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Cinderheart Giant', ['{5}{R}{R}', 'Creature — Giant Berserker', 'Trample', 'When Cinderheart Giant dies, it deals 7 damage to a creature an opponent controls chosen at random.', '7/6'])</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Colossal Plow', ['{2}', 'Artifact — Vehicle', 'Whenever Colossal Plow attacks, add {W}{W}{W} and you gain 3 life. Until end of turn, you don’t lose this mana as steps and phases end.', 'Crew 6 (Tap any number of creatures you control with total power 6 or more: This Vehicle becomes an artifact creature until end of turn.)', '6/3'])</t>
+          <t>('Clarion Spirit', ['{1}{W}', 'Creature — Spirit', 'Whenever you cast your second spell each turn, create a 1/1 white Spirit creature token with flying.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
+          <t>('Cleaving Reaper', ['{3}{B}{B}', 'Creature — Angel Berserker', 'Flying, trample', 'Pay 3 life: Return Cleaving Reaper from your graveyard to your hand. Activate this ability only if you had an Angel or Berserker enter the battlefield under your control this turn.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Codespell Cleric', ['{W}', 'Creature — Human Cleric', 'Vigilance', 'When Codespell Cleric enters the battlefield, if it was the second spell you cast this turn, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Cosmos Elixir', ['{4}', 'Artifact', 'At the beginning of your end step, draw a card if your life total is greater than your starting life total. Otherwise, you gain 2 life.'])</t>
+          <t>('Colossal Plow', ['{2}', 'Artifact — Vehicle', 'Whenever Colossal Plow attacks, add {W}{W}{W} and you gain 3 life. Until end of turn, you don’t lose this mana as steps and phases end.', 'Crew 6 (Tap any number of creatures you control with total power 6 or more: This Vehicle becomes an artifact creature until end of turn.)', '6/3'])</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
+          <t>('Cosmos Charger', ['{3}{U}', 'Creature — Horse Spirit', 'Flash', 'Flying', 'Foretelling cards from your hand costs {1} less and can be done on any player’s turn.', 'Foretell {2}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
+          <t>('Cosmos Elixir', ['{4}', 'Artifact', 'At the beginning of your end step, draw a card if your life total is greater than your starting life total. Otherwise, you gain 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
+          <t>('Craven Hulk', ['{3}{R}', 'Creature — Giant Coward', 'Craven Hulk can’t block alone.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Demon Bolt', ['{2}{R}', 'Instant', 'Demon Bolt deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Crippling Fear', ['{2}{B}{B}', 'Sorcery', 'Choose a creature type. Creatures that aren’t of the chosen type get -3/-3 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Demonic Gifts', ['{1}{B}', 'Instant', 'Until end of turn, target creature gets +2/+0 and gains “When this creature dies, return it to the battlefield under its owner’s control.”'])</t>
+          <t>('Crush the Weak', ['{2}{R}', 'Sorcery', 'Crush the Weak deals 2 damage to each creature. If a creature dealt damage this way would die this turn, exile it instead.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
+          <t>('Cyclone Summoner', ['{5}{U}{U}', 'Creature — Giant Wizard', 'When Cyclone Summoner enters the battlefield, if you cast it from your hand, return all permanents to their owners’ hands except for Giants, Wizards, and lands.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
+          <t>('Darkbore Pathway', ['Land', '{T}: Add {B}.', 'Slitherbore Pathway', 'Land', '{T}: Add {G}.'])</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
+          <t>('Deathknell Berserker', ['{1}{B}', 'Creature — Elf Berserker', 'When Deathknell Berserker dies, if its power was 3 or greater, create a 2/2 black Zombie Berserker creature token.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Demon Bolt', ['{2}{R}', 'Instant', 'Demon Bolt deals 4 damage to target creature or planeswalker.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
+          <t>('Demonic Gifts', ['{1}{B}', 'Instant', 'Until end of turn, target creature gets +2/+0 and gains “When this creature dies, return it to the battlefield under its owner’s control.”'])</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('"Dragon Dad uwu…"', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
+          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
+          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
+          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Draugr Thought-Thief', ['{2}{U}', 'Creature — Zombie Rogue', 'When Draugr Thought-Thief enters the battlefield, look at the top card of target player’s library. You may put that card into their graveyard.', '3/2'])</t>
+          <t>('Doomskar', ['{3}{W}{W}', 'Sorcery', 'Destroy all creatures.', 'Foretell {1}{W}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
+          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Dream Devourer', ['{1}{B}', 'Creature — Demon Cleric', 'Each nonland card in your hand without foretell has foretell. Its foretell cost is equal to its mana cost reduced by {2}. (During your turn, you may pay {2} and exile it from your hand face down. Cast it on a later turn for its foretell cost.)', 'Whenever you foretell a card, Dream Devourer gets +2/+0 until end of turn.', '0/3'])</t>
+          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Dragonkin Berserker', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
+          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('"Dwarven Hammer"', ['{2}{R}', 'Artifact — Equipment', 'When “Dwarven Hammer” enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach “Dwarven Hammer” to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
+          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Draugr Thought-Thief', ['{2}{U}', 'Creature — Zombie Rogue', 'When Draugr Thought-Thief enters the battlefield, look at the top card of target player’s library. You may put that card into their graveyard.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
+          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
+          <t>('Dream Devourer', ['{1}{B}', 'Creature — Demon Cleric', 'Each nonland card in your hand without foretell has foretell. Its foretell cost is equal to its mana cost reduced by {2}. (During your turn, you may pay {2} and exile it from your hand face down. Cast it on a later turn for its foretell cost.)', 'Whenever you foretell a card, Dream Devourer gets +2/+0 until end of turn.', '0/3'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
+          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
+          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
+          <t>('Dwarven Hammer', ['{2}{R}', 'Artifact — Equipment', 'When Dwarven Hammer enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach Dwarven Hammer to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
+          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
+          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
+          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
+          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
+          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Fearless Pup', ['{R}', 'Creature — Wolf', 'First strike', 'Boast — {2}{R}: Fearless Pup gets +2/+0 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/1'])</t>
+          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
+          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
+          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
+          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with power less than this creature’s power.”', 'III — Angels you control gain double strike until end of turn.'])</t>
+          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('"Family Get-Together"', ['{4}{B}{B}', 'Sorcery', 'Choose a creature type. Return up to two creature cards of the chosen type from your graveyard to the battlefield. If this spell was foretold, return all creature cards of the chosen type from your graveyard to the battlefield instead.', 'Foretell {5}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Frenzied Raider', ['{1}{R}', 'Creature — Demon Berserker', 'Whenever you activate a boast ability, put a +1/+1 counter on Frenzied Raider.', '2/2'])</t>
+          <t>('Fearless Pup', ['{R}', 'Creature — Wolf', 'First strike', 'Boast — {2}{R}: Fearless Pup gets +2/+0 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
+          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
+          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
+          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with power less than this creature’s power.”', 'III — Angels you control gain double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('"Frozen Blessing"', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater. ({S} is mana from a snow source.)'])</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
+          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
+          <t>('Frenzied Raider', ['{1}{R}', 'Creature — Demon Berserker', 'Whenever you activate a boast ability, put a +1/+1 counter on Frenzied Raider.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
+          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'Giant Ox crews Vehicles using its toughness rather than its power.', '0/6'])</t>
+          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
+          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
+          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
+          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
+          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
+          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
+          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'Giant Ox crews Vehicles using its toughness rather than its power.', '0/6'])</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
+          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('"Glorious Protector"', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When “Glorious Protector” enters the battlefield, you may exile any number of non-Angel creatures you control until “Glorious Protector” leaves the battlefield.', 'Foretell {2}{W}'])</t>
+          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
+          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
+          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
+          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
+          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Glorious Protector', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When Glorious Protector enters the battlefield, you may exile any number of non-Angel creatures you control until Glorious Protector leaves the battlefield.', 'Foretell {2}{W}', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
+          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
+          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
+          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
+          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
+          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
+          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
+          <t>('Great Hall of Starnheim', ['Land', 'Great Hall of Starnheim enters the battlefield tapped.', '{T}: Add {B}.', '{W}{W}{B}, {T}, Sacrifice Great Hall of Starnheim and a creature you control: Create a 4/4 white Angel Warrior creature token with flying and vigilance. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
+          <t>('Grizzled Outrider', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Horizon Seeker', ['{2}{G}', 'Creature — Human Warrior', 'Boast — {1}{G}: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
+          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('"Horrible Encounter"', ['{2}{B}{B}', 'Sorcery', 'Creatures that aren’t the creature type of your choice get -3/-3 until end of turn.'])</t>
+          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('Icehide Troll', ['{2}{G}', 'Snow Creature — Troll Warrior', '{S}{S}: Icehide Troll gets +2/+0 and gains indestructible until end of turn. Tap it. (Damage and effects that say “destroy” don’t destroy it. {S} can be paid with one mana from a snow source.)', '2/3'])</t>
+          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
+          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
+          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Immersturm Raider', ['{1}{R}', 'Creature — Demon Berserker', 'When Immersturm Raider enters the battlefield, you may discard a card. If you do, draw a card.', '2/1'])</t>
+          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Immersturm Skullcairn', ['Land', 'Immersturm Skullcairn enters the battlefield tapped.', '{T}: Add {B}.', '{1}{B}{R}{R}, {T}, Sacrifice Immersturm Skullcairn: It deals 3 damage to target player. That player discards a card. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
+          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
+          <t>('Horizon Seeker', ['{2}{G}', 'Creature — Human Warrior', 'Boast — {1}{G}: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
+          <t>('Icehide Troll', ['{2}{G}', 'Snow Creature — Troll Warrior', '{S}{S}: Icehide Troll gets +2/+0 and gains indestructible until end of turn. Tap it. (Damage and effects that say “destroy” don’t destroy it. {S} can be paid with one mana from a snow source.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
+          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Immersturm Raider', ['{1}{R}', 'Creature — Demon Berserker', 'When Immersturm Raider enters the battlefield, you may discard a card. If you do, draw a card.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Immersturm Skullcairn', ['Land', 'Immersturm Skullcairn enters the battlefield tapped.', '{T}: Add {B}.', '{1}{B}{R}{R}, {T}, Sacrifice Immersturm Skullcairn: It deals 3 damage to target player. That player discards a card. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
+          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
+          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
+          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
+          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
+          <t>('Invoke the Divine', ['{2}{W}', 'Instant', 'Destroy target artifact or enchantment. You gain 4 life.'])</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
+          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
+          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
+          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
+          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
+          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
+          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
+          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
+          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
+          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
+          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
+          <t>('"King Narfi\'s Betrayal"', ['{1}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Each player mills four cards. You may exile up to one creature or planeswalker card from each graveyard.', 'II, III — Until end of turn, you may cast spells from among cards exiled with “King Narfi’s Betrayal”, and you may spend mana as though it were mana of any color to cast those spells.'])</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
+          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
+          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('"Master Skald"', ['{4}{W}', 'Creature — Dwarf Warrior', 'When “Master Skald” enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
+          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
+          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('"My D&amp;D OC"', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
+          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
+          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
+          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
+          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
+          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
+          <t>('Master Skald', ['{4}{W}', 'Creature — Dwarf Warrior', 'When Master Skald enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
+          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield. (To mill a card, a player puts the top card of their library into their graveyard.)'])</t>
+          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('"Priest of the Dam"', ['{1}{B}', 'Snow Creature — Zombie Cleric', '{T}, Sacrifice “Priest of the Dam”: Target creature gets -X/-X until end of turn, where X is the number of snow lands you control. Activate this ability only any time you could cast a sorcery.', '0/4'])</t>
+          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('Provoke the Trolls', ['{3}{R}', 'Instant', 'Provoke the Trolls deals 3 damage to any target. If a creature is dealt damage this way, it gets +5/+0 until end of turn.'])</t>
+          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
+          <t>('Orvar, the All-Form', ['{3}{U}', 'Legendary Creature — Shapeshifter', 'Changeling', 'Whenever you cast an instant or sorcery spell, if it targets one or more other permanents you control, create a token that’s a copy of one of those permanents.', 'When a spell or ability an opponent controls causes you to discard this card, create a token that’s a copy of target permanent.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
+          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
+          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
+          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield. (To mill a card,put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('"Ravenous Lindwurm"', ['{4}{G}{G}', 'Creature — Wurm', 'When “Ravenous Lindwurm” enters the battlefield, you gain 4 life.', '6/6'])</t>
+          <t>('Priest of the Haunted Edge', ['{1}{B}', 'Snow Creature — Zombie Cleric', '{T}, Sacrifice Priest of the Haunted Edge: Target creature gets -X/-X until end of turn, where X is the number of snow lands you control. Activate this ability only any time you could cast a sorcery.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Provoke the Trolls', ['{3}{R}', 'Instant', 'Provoke the Trolls deals 3 damage to any target. If a creature is dealt damage this way, it gets +5/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
+          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
+          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
+          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
+          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
+          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
+          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
+          <t>('Ravenous Lindwurm', ['{4}{G}{G}', 'Creature — Wurm', 'When Ravenous Lindwurm enters the battlefield, you gain 4 life.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
+          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
+          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
+          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
+          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
+          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
+          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
+          <t>('Resplendent Marshal', ['{1}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Resplendent Marshal enters the battlefield or dies, you may exile another creature card from your graveyard. When you do, put a +1/+1 counter on each creature you control other than Resplendent Marshal that shares a creature type with the exiled card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
+          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Righteous Valkyrie', ['{2}{W}', 'Creature — Angel Cleric', 'Flying', 'Whenever another Angel or Cleric enters the battlefield under your control, you gain life equal to that creature’s toughness.', 'As long as you have at least 7 life more than your starting life total, creatures you control get +2/+2.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
+          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
+          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
+          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
+          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
+          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
+          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
+          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('Skull Raid', ['{3}{B}', 'Sorcery', 'Target opponent discards two cards. If fewer than two cards were discarded this way, you draw cards equal to the difference.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Shackles of Treachery', ['{2}{R}', 'Sorcery', 'Gain control of target creature until end of turn. Untap that creature. Until end of turn, it gains haste and “Whenever this creature deals damage, destroy target Equipment attached to it.”'])</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Shimmerdrift Vale', ['Snow Land', 'Shimmerdrift Vale enters the battlefield tapped.', 'As Shimmerdrift Vale enters the battlefield, choose a color.', '{T}: Add one mana of the chosen color.'])</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
+          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
+          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
+          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
+          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>('Stalwart Valkyrie', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
+          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
+          <t>('Skull Raid', ['{3}{B}', 'Sorcery', 'Target opponent discards two cards. If fewer than two cards were discarded this way, you draw cards equal to the difference.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
+          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
+          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
+          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
+          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>('"Surtland Frostfire"', ['Land', '“Surtland Frostfire” enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice “Surtland Frostfire”: Scry 2, then “Surtland Frostfire” deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>('Svella, Ice Shaper', ['{1}{R}{G}', 'Legendary Snow Creature — Troll Warrior', '{3}, {T}: Create a colorless snow artifact token named Icy Manalith with “{T}: Add one mana of any color.”', '{6}{R}{G}, {T}: Look at the top four cards of your library. You may cast a spell from among them without paying its mana cost. Put the rest on the bottom of your library in a random order.', '2/4'])</t>
+          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature with power 4 or greater you control deals damage equal to its power to that permanent.'])</t>
+          <t>('Stalwart Valkyrie', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps or phases end.'])</t>
+          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
+          <t>('Starnheim Courser', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'Artifact and enchantment spells you cast cost {1} less to cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+          <t>('Surtland Frostpyre', ['Land', 'Surtland Frostpyre enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice Surtland Frostpyre: Scry 2. Surtland Frostpyre deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+          <t>('Svella, Ice Shaper', ['{1}{R}{G}', 'Legendary Snow Creature — Troll Warrior', '{3}, {T}: Create a colorless snow artifact token named Icy Manalith with “{T}: Add one mana of any color.”', '{6}{R}{G}, {T}: Look at the top four cards of your library. You may cast a spell from among them without paying its mana cost. Put the rest on the bottom of your library in a random order.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>('Tyrite Sanctum', ['Land', '{T}: Add {C}.', '{2}, {T}: Target legendary creature becomes a God in addition to its other types. Put a +1/+1 counter on it.', '{4}, {T}, Sacrifice Tyrite Sanctum: Put an indestructible counter on target God.'])</t>
+          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature with power 4 or greater you control deals damage equal to its power to that permanent.'])</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps or phases end.'])</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+          <t>('"The First Snowman"', ['{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards.', 'II — Return up to two snow permanent cards from your graveyard to your hand.', 'III — Choose up to three cards in each graveyard. Their owners shuffle those cards into their libraries.'])</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
+          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>('"Valley of Lights"', ['Snow Land', '“Valley of Lights” enters the battlefield tapped.', 'As “Valley of Lights” enters the battlefield, choose a color.', '{T}: Add one mana of the chosen color.'])</t>
+          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player searches their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+          <t>('Tyrite Sanctum', ['Land', '{T}: Add {C}.', '{2}, {T}: Target legendary creature becomes a God in addition to its other types. Put a +1/+1 counter on it.', '{4}, {T}, Sacrifice Tyrite Sanctum: Put an indestructible counter on target God.'])</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>('"War Horn Blessing"', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
+        <is>
+          <t>('Valor of the Worthy', ['{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1.', 'When enchanted creature leaves the battlefield, create a 1/1 white Spirit creature token with flying.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player searches their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>('Warhorn Blast', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>('Weigh Down', ['{B}', 'Sorcery', 'As an additional cost to cast this spell, exile a creature card from your graveyard.', 'Target creature gets -3/-3 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
         <is>
           <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valyrie.', '1/3'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A293"/>
+  <dimension ref="A1:A307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('Alrund, God of the Cosmos', ['{3}{U}{U}', 'Legendary Creature — God', 'Alrund gets +1/+1 for each card in your hand and each foretold card you own in exile.', 'At the beginning of your end step, choose a card type, then reveal the top two cards of your library. Put all cards of the chosen type into your hand and the rest on the bottom of your library in any order.', '1/1', 'Hakka, Whispering Raven', '{1}{U}', 'Legendary Creature — Bird', 'Flying', 'Whenever Hakka, Whispering Raven deals combat damage to a player, return it to its owner’s hand, then scry 2.', '2/3'])</t>
+          <t>('Alrund, God of the Cosmos', ['{3}{U}{U}', 'Legendary Creature — God', 'Alrund gets +1/+1 for each card in your hand and each foretold card you own in exile.', 'At the beginning of your end step, choose a card type, then reveal the top two cards of your library. Put all cards of the chosen type revealed this way into your hand and the rest on the bottom of your library in any order.', '1/1', 'Hakka, Whispering Raven', '{1}{U}', 'Legendary Creature — Bird', 'Flying', 'Whenever Hakka, Whispering Raven deals combat damage to a player, return it to its owner’s hand, then scry 2.', '2/3'])</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Battershield Warrior', ['{2}{W}', 'Creature — Human Warrior', 'Boast — {1}{W}: Creatures you control get +1/+1 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)'])</t>
+          <t>('Battershield Warrior', ['{2}{W}', 'Creature — Human Warrior', 'Boast — {1}{W}: Creatures you control get +1/+1 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
         </is>
       </c>
     </row>
@@ -654,119 +654,119 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Birgi, God of Storytelling', ['{2}{R}', 'Legendary Creature — God', 'Whenever you cast a spell, add {R}. Until end of turn, you don’t lose this mana as steps and phases end.', 'Creatures you control can boast twice during each of your turns rather than once.', '3/3', 'Harnfel, Horn of Bounty', '{4}{R}', 'Legendary Artifact', 'Discard a card: Exile the top two cards of your library. You may play those cards this turn.'])</t>
+          <t>('Bind the Monster', ['{U}', 'Enchantment — Aura', 'Enchant creature', 'When Bind the Monster enters the battlefield, tap enchanted creature. It deals damage to you equal to its power.', 'Enchanted creature doesn’t untap during its controller’s untap step.'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('Blessing of Frost', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater. ({S} is mana from a snow source.)'])</t>
+          <t>('Birgi, God of Storytelling', ['{2}{R}', 'Legendary Creature — God', 'Whenever you cast a spell, add {R}. Until end of turn, you don’t lose this mana as steps and phases end.', 'Creatures you control can boast twice during each of your turns rather than once.', '3/3', 'Harnfel, Horn of Bounty', '{4}{R}', 'Legendary Artifact', 'Discard a card: Exile the top two cards of your library. You may play those cards this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
+          <t>('Blessing of Frost', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
+          <t>('Blightstep Pathway', ['Land', '{T}: Add {B}.', 'Searstep Pathway', 'Land', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
+          <t>('Blizzard Brawl', ['{G}', 'Snow Sorcery', 'Choose target creature you control and target creature you don’t control. If you control three or more snow permanents, the creature you control gets +1/+0 and gains indestructible until end of turn. Then those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
+          <t>('Bloodline Pretender', ['{3}', 'Artifact Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Bloodline Pretender enters the battlefield, choose a creature type.', 'Whenever another creature of the chosen type enters the battlefield under your control, put a +1/+1 counter on Bloodline Pretender.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
+          <t>('Blood on the Snow', ['{4}{B}{B}', 'Snow Sorcery', 'Choose one —', '• Destroy all creatures.', '• Destroy all planeswalkers.', 'Then return a creature or planeswalker card with converted mana cost X or less from your graveyard to the battlefield, where X is the amount of {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
+          <t>('Bloodsky Berserker', ['{1}{B}', 'Creature — Human Berserker', 'Whenever you cast your second spell each turn, put two +1/+1 counters on Bloodsky Berserker. It gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
+          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Breakneck Berserker', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
+          <t>('Bound in Gold', ['{2}{W}', 'Enchantment — Aura', 'Enchant permanent', 'Enchanted permanent can’t attack, block, or crew Vehicles, and its activated abilities can’t be activated unless they’re mana abilities.'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Breakneck Berserker', ['{2}{R}', 'Creature — Dwarf Berserker', 'Haste', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('Brinebarrow Intruder', ['{U}', 'Creature — Human Rogue', 'Flash', 'When Brinebarrow Intruder enters the battlefield, target creature an opponent controls gets -2/-0 until end of turn.', '1/2'])</t>
+          <t>('Bretagard Stronghold', ['Land', 'Bretagard Stronghold enters the battlefield tapped.', '{T}: Add {G}.', '{G}{W}{W}, {T}, Sacrifice Bretagard Stronghold: Put a +1/+1 counter on each of up to two target creatures you control. They gain vigilance and lifelink until end of turn. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
+          <t>('Brinebarrow Intruder', ['{U}', 'Creature — Human Rogue', 'Flash', 'When Brinebarrow Intruder enters the battlefield, target creature an opponent controls gets -2/-0 until end of turn.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
+          <t>('Broken Wings', ['{2}{G}', 'Instant', 'Destroy target artifact, enchantment, or creature with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
+          <t>('Burning-Rune Demon', ['{4}{B}{B}', 'Creature — Demon Berserker', 'Flying', 'When Burning-Rune Demon enters the battlefield, you may search your library for exactly two cards not named Burning-Rune Demon that have different names. If you do, reveal those cards. An opponent chooses one of them. Put the chosen card into your hand and the other into your graveyard, then shuffle your library.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
+          <t>('Calamity Bearer', ['{2}{R}{R}', 'Creature — Giant Berserker', 'If a Giant source you control would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('"Chill Out"', ['{2}{U}', 'Snow Artifact', '{S}, {T}: Tap target artifact or creature. ({S} is mana from a snow source.)'])</t>
+          <t>('Canopy Tactician', ['{3}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{T}: Add {G}{G}{G}.', '3/3'])</t>
         </is>
       </c>
     </row>
@@ -885,1601 +885,1699 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
+          <t>('Depart the Realm', ['{1}{U}', 'Instant', 'Return target nonland permanent to its owners’s hand.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
+          <t>('Disdainful Stroke', ['{1}{U}', 'Instant', 'Counter target spell with converted mana cost 4 or greater.'])</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
+          <t>('Divine Gambit', ['{W}{W}', 'Sorcery', 'Exile target artifact, creature, or enchantment an opponent controls. That player may put a permanent card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Doomskar', ['{3}{W}{W}', 'Sorcery', 'Destroy all creatures.', 'Foretell {1}{W}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Dogged Pursuit', ['{3}{B}', 'Enchantment', 'At the beginning of your end step, each opponent loses 1 life and you gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Doomskar', ['{3}{W}{W}', 'Sorcery', 'Destroy all creatures.', 'Foretell {1}{W}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
+          <t>('Doomskar Oracle', ['{2}{W}', 'Creature — Human Cleric', 'Whenever you cast your second spell each turn, you gain 2 life.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Dragonkin Berserker', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
+          <t>('Doomskar Titan', ['{4}{R}{R}', 'Creature — Giant Berserker', 'When Doomskar Titan enters the battlefield, creatures you control get +1/+0 and gain haste until end of turn.', 'Foretell {4}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
+          <t>('Dragonkin Berserker', ['{1}{R}', 'Creature — Human Berserker', 'First strike', 'Boast abilities you activate cost {1} less to activate for each Dragon you control.', 'Boast — {4}{R}: Create a 5/5 red Dragon creature token with flying. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
+          <t>('Draugr Necromancer', ['{3}{B}', 'Snow Creature — Zombie Cleric', 'If a nontoken creature an opponent controls would die, exile that card with an ice counter on it instead.', 'You may cast spells from among cards in exile your opponents own with ice counters on them, and you may spend mana from snow sources as though it were mana of any color to cast those spells.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('Draugr Thought-Thief', ['{2}{U}', 'Creature — Zombie Rogue', 'When Draugr Thought-Thief enters the battlefield, look at the top card of target player’s library. You may put that card into their graveyard.', '3/2'])</t>
+          <t>('Draugr Recruiter', ['{3}{B}', 'Creature — Zombie Cleric', 'Boast — {3}{B}: Return target creature card from your graveyard to your hand. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
+          <t>("Draugr's Helm", ['{1}{B}', 'Artifact — Equipment', 'When Draugr’s Helm enters the battlefield, you may pay {2}{B}. If you do, create a 2/2 black Zombie Berserker creature token, then attach Draugr’s Helm to it.', 'Equipped creature gets +2/+2 and has menace. (It can’t be blocked except by two or more creatures.)', 'Equip {4}'])</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Dream Devourer', ['{1}{B}', 'Creature — Demon Cleric', 'Each nonland card in your hand without foretell has foretell. Its foretell cost is equal to its mana cost reduced by {2}. (During your turn, you may pay {2} and exile it from your hand face down. Cast it on a later turn for its foretell cost.)', 'Whenever you foretell a card, Dream Devourer gets +2/+0 until end of turn.', '0/3'])</t>
+          <t>('Draugr Thought-Thief', ['{2}{U}', 'Creature — Zombie Rogue', 'When Draugr Thought-Thief enters the battlefield, look at the top card of target player’s library. You may put that card into their graveyard.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Dread Rider', ['{5}{B}', 'Creature — Spirit Knight', '{1}{B}, {T}, Exile a creature card from your graveyard: Target opponent loses 3 life.', '3/7'])</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
+          <t>('Dream Devourer', ['{1}{B}', 'Creature — Demon Cleric', 'Each nonland card in your hand without foretell has foretell. Its foretell cost is equal to its mana cost reduced by {2}. (During your turn, you may pay {2} and exile it from your hand face down. Cast it on a later turn for its foretell cost.)', 'Whenever you foretell a card, Dream Devourer gets +2/+0 until end of turn.', '0/3'])</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Dwarven Hammer', ['{2}{R}', 'Artifact — Equipment', 'When Dwarven Hammer enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach Dwarven Hammer to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
+          <t>('Dual Strike', ['{R}{R}', 'Instant', 'When you cast your next instant or sorcery spell with converted mana cost 4 or less this turn, copy that spell. You may choose new targets for the copy.', 'Foretell {R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Duskwielder', ['{B}', 'Creature — Elf Berserker', 'Boast — {1}: Target opponent loses 1 life and you gain 1 life. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
+          <t>('Dwarven Hammer', ['{2}{R}', 'Artifact — Equipment', 'When Dwarven Hammer enters the battlefield, you may pay {2}. If you do, create a 2/1 red Dwarf Berserker creature token, then attach Dwarven Hammer to it.', 'Equipped creature gets +3/+0 and has trample.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
+          <t>('Dwarven Reinforcements', ['{3}{R}', 'Sorcery', 'Create two 2/1 red Dwarf Berserker creature tokens.', 'Foretell {1}{R} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
+          <t>('Egon, God of Death', ['{2}{B}', 'Legendary Creature — God', 'Deathtouch', 'At the beginning of your upkeep, exile two cards from your graveyard. If you can’t, sacrifice Egon and draw a card.', '6/6', 'Throne of Death', '{B}', 'Legendary Artifact', 'At the beginning of your upkeep, mill a card.', '{2}{B}, {T}, Exile a creature card from your graveyard: Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
+          <t>('Elderfang Disciple', ['{1}{B}', 'Creature — Elf Cleric', 'When Elderfang Disciple enters the battlefield, each opponent discards a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
+          <t>('Elderfang Ritualist', ['{2}{B}', 'Creature — Elf Cleric', 'When Elderfang Ritualist dies, return another target Elf card from your graveyard to your hand.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
+          <t>('Elderleaf Mentor', ['{3}{G}', 'Creature — Elf Warrior', 'When Elderleaf Mentor enters the battlefield, create a 1/1 green Elf Warrior creature token.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
+          <t>('Elven Ambush', ['{3}{G}', 'Instant', 'Create a 1/1 green Elf Warrior creature token for each Elf you control.'])</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
+          <t>('Elven Bow', ['{G}', 'Artifact — Equipment', 'When Elven Bow enters the battlefield, you may pay {2}. If you do, create a 1/1 green Elf Warrior creature token, then attach Elven Bow to it.', 'Equipped creature gets +1/+2 and has reach.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
+          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
+          <t>('Eradicator Valkyrie', ['{2}{B}{B}', 'Creature — Angel Berserker', 'Flying, lifelink, hexproof from planeswalkers', 'Boast — {1}{B}, Sacrifice a creature: Each opponent sacrifices a creature or planeswalker. (Activate this ability only if this creature attacked this turn and only once each turn.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
+          <t>('Esika, God of the Tree', ['{1}{G}{G}', 'Legendary Creature — God', 'Vigilance', '{T}: Add one mana of any color.', 'Other legendary creatures you control have vigilance and “{T}: Add one mana of any color.”', '1/4', 'The Prismatic Bridge', '{W}{U}{B}{R}{G}', 'Legendary Enchantment', 'At the beginning of your upkeep, reveal cards from the top of your library until you reveal a creature or planeswalker card. Put that card onto the battlefield and the rest on the bottom of your library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('"Family Get-Together"', ['{4}{B}{B}', 'Sorcery', 'Choose a creature type. Return up to two creature cards of the chosen type from your graveyard to the battlefield. If this spell was foretold, return all creature cards of the chosen type from your graveyard to the battlefield instead.', 'Foretell {5}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>("Esika's Chariot", ['{3}{G}', 'Legendary Artifact — Vehicle', 'When Esika’s Chariot enters the battlefield, create two 2/2 green Cat creature tokens.', 'Whenever Esika’s Chariot attacks, create a token that’s a copy of target token you control.', 'Crew 4', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('Faceless Haven', ['Snow Land', '{T}: Add {C}.', '{S}{S}{S}: Faceless Haven becomes a 4/3 creature with vigilance and all creature types until end of turn. It’s still a land. ({S} can be paid with one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Fearless Pup', ['{R}', 'Creature — Wolf', 'First strike', 'Boast — {2}{R}: Fearless Pup gets +2/+0 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/1'])</t>
+          <t>('Fall of the Impostor', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Put a +1/+1 counter on up to one target creature.', 'III — Exile a creature with the greatest power among creatures target opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
+          <t>('Fearless Liberator', ['{1}{R}', 'Creature — Dwarf Berserker', 'Boast — {2}{R}: Create a 2/1 red Dwarf Berserker creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
+          <t>('Fearless Pup', ['{R}', 'Creature — Wolf', 'First strike', 'Boast — {2}{R}: Fearless Pup gets +2/+0 until end of turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
+          <t>('Feed the Serpent', ['{2}{B}{B}', 'Instant', 'Exile target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with power less than this creature’s power.”', 'III — Angels you control gain double strike until end of turn.'])</t>
+          <t>("Fire Giant's Fury", ['{1}{R}', 'Sorcery', 'Target Giant you control gets +2/+2 and gains trample until end of turn. Whenever it deals combat damage to a player this turn, exile that many cards from the top of your library. Until the end of your next turn, you may play those cards.'])</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Firja, Judge of Valor', ['{2}{W}{B}{B}', 'Legendary Creature — Angel Cleric', 'Flying, lifelink', 'Whenever you cast your second spell each turn, look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>("Firja's Retribution", ['{1}{W}{W}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 4/4 white Angel Warrior creature token with flying and vigilance.', 'II — Until end of turn, Angels you control gain “{T}: Destroy target creature with power less than this creature’s power.”', 'III — Angels you control gain double strike until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Frenzied Raider', ['{1}{R}', 'Creature — Demon Berserker', 'Whenever you activate a boast ability, put a +1/+1 counter on Frenzied Raider.', '2/2'])</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Forging the Tyrite Sword', ['{1}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I, II — Create a Treasure token.', 'III — Search your library for a card named Halvar, God of Battle or an Equipment card, reveal it, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
+          <t>('Frenzied Raider', ['{1}{R}', 'Creature — Demon Berserker', 'Whenever you activate a boast ability, put a +1/+1 counter on Frenzied Raider.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
+          <t>('Frost Augur', ['{U}', 'Snow Creature — Human Wizard', '{S}, {T}: Look at the top card of your library. If it’s a snow card, you may reveal it and put it into your hand. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
+          <t>('Frost Bite', ['{R}', 'Snow Instant', 'Frost Bite deals 2 damage to target creature or planeswalker. If you control three or more snow permanents, it deals 3 damage instead.'])</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
+          <t>('Frostpeak Yeti', ['{3}{U}', 'Snow Creature — Yeti', '{1}{S}: Frostpeak Yeti can’t be blocked this turn. ({S} can be paid with one mana from a snow source.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
+          <t>('Frostpyre Arcanist', ['{4}{U}', 'Creature — Giant Wizard', 'This spell costs {1} less to cast if you control a Giant or a Wizard.', 'When Frostpyre Arcanist enters the battlefield, search your library for an instant or sorcery card with the same name as a card in your graveyard, reveal it, put it into your hand, then shuffle your library.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
+          <t>('Funeral Longboat', ['{2}', 'Artifact — Vehicle', 'Vigilance', 'Crew 1 (Tap any number of creatures you control with total power 1 or more: This Vehicle becomes an artifact creature until end of turn.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'Giant Ox crews Vehicles using its toughness rather than its power.', '0/6'])</t>
+          <t>('Fynn, the Fangbearer', ['{1}{G}', 'Legendary Creature — Human Warrior', 'Deathtouch', 'Whenever a creature you control with deathtouch deals combat damage to a player, that player gets two poison counters. (A player with ten or more poison counters loses the game.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
+          <t>('Gates of Istfell', ['Land', 'Gates of Istfell enters the battlefield tapped.', '{T}: Add {W}.', '{2}{W}{U}{U}, {T}, Sacrifice Gates of Istfell: You gain 2 life and draw two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
+          <t>('Giant Ox', ['{1}{W}', 'Creature — Ox', 'Giant Ox crews Vehicles using its toughness rather than its power.', '0/6'])</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
+          <t>("Giant's Amulet", ['{U}', 'Artifact — Equipment', 'When Giant’s Amulet enters the battlefield, you may pay {3}{U}. If you do, create a 4/4 blue Giant Wizard creature token, then attach Giant’s Amulet to it.', 'Equipped creature gets +0/+1 and has “This creature has hexproof as long as it’s untapped.” (It can’t be the target of spells or abilities your opponents control.)', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
+          <t>("Giant's Grasp", ['{2}{U}{U}', 'Enchantment — Aura', 'Enchant Giant you control', 'When Giant’s Grasp enters the battlefield, gain control of target nonland permanent for as long as Giant’s Grasp remains on the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
+          <t>('Gilded Assault Cart', ['{1}{R}{R}', 'Artifact — Vehicle', 'Trample', 'Crew 2 (Tap any number of creatures you control with total power 2 or more: This Vehicle becomes an artifact creature until end of turn.)', 'Sacrifice two Treasures: Return Gilded Assault Cart from your graveyard to your hand.', '5/1'])</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
+          <t>('Glacial Floodplain', ['Snow Land — Plains Island', '({T}: Add {W} or {U}.)', 'Glacial Floodplain enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
+          <t>('Gladewalker Ritualist', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Whenever another creature named Gladewalker Ritualist enters the battlefield under your control, draw a card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('Glorious Protector', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When Glorious Protector enters the battlefield, you may exile any number of non-Angel creatures you control until Glorious Protector leaves the battlefield.', 'Foretell {2}{W}', '3/4'])</t>
+          <t>('Glimpse the Cosmos', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.', 'As long as you control a Giant, you may cast Glimpse the Cosmos from your graveyard by paying {U} rather than paying its mana cost. If you cast Glimpse the Cosmos this way and it would be put into your graveyard, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
+          <t>('Glittering Frost', ['{2}{G}', 'Snow Enchantment — Aura', 'Enchant land', 'Enchanted land is snow.', 'Whenever enchanted land is tapped for mana, its controller adds an additional one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
+          <t>('Glorious Protector', ['{2}{W}{W}', 'Creature — Angel Cleric', 'Flash', 'Flying', 'When Glorious Protector enters the battlefield, you may exile any number of non-Angel creatures you control until Glorious Protector leaves the battlefield.', 'Foretell {2}{W}', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
+          <t>('Gnottvold Recluse', ['{2}{G}', 'Creature — Spider', 'Reach', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Gnottvold Slumbermound', ['Land', 'Gnottvold Slumbermound enters the battlefield tapped.', '{T}: Add {R}.', '{3}{R}{G}{G}, {T}, Sacrifice Gnottvold Slumbermound: Destroy target land. Create a 4/4 green Troll Warrior creature token with trample.'])</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
+          <t>("Gods' Hall Guardian", ['{5}{W}', 'Creature — Cat', 'Vigilance', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/6'])</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Goldmaw Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'Boast — {1}{W}: Tap target creature. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
+          <t>('Goldspan Dragon', ['{3}{R}{R}', 'Creature — Dragon', 'Flying, haste', 'Whenever Goldspan Dragon attacks or becomes the target of a spell, create a Treasure token.', 'Treasures you control have “{T}, Sacrifice this artifact: Add two mana of any one color.”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('Great Hall of Starnheim', ['Land', 'Great Hall of Starnheim enters the battlefield tapped.', '{T}: Add {B}.', '{W}{W}{B}, {T}, Sacrifice Great Hall of Starnheim and a creature you control: Create a 4/4 white Angel Warrior creature token with flying and vigilance. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Goldvein Pick', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature deals combat damage to a player, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
+          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Grizzled Outrider', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
+          <t>('Great Hall of Starnheim', ['Land', 'Great Hall of Starnheim enters the battlefield tapped.', '{T}: Add {B}.', '{W}{W}{B}, {T}, Sacrifice Great Hall of Starnheim and a creature you control: Create a 4/4 white Angel Warrior creature token with flying and vigilance. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
+          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
+          <t>('Grizzled Outrider', ['{4}{G}', 'Creature — Elf Warrior', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
+          <t>('Guardian Gladewalker', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Guardian Gladewalker enters the battlefield, put a +1/+1 counter on target creature.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
+          <t>('Hagi Mob', ['{4}{R}', 'Creature — Troll Berserker', 'Boast — {1}{R}: Hagi Mob deals 1 damage to any target. (Activate this ability only if this creature attacked this turn and only once each turn.)', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
+          <t>('Hailstorm Valkyrie', ['{3}{B}', 'Snow Creature — Angel Wizard', 'Flying, trample', '{S}{S}: Hailstorm Valkyrie gets +2/+2 until end of turn. ({S} can be paid with one mana from a snow source.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
+          <t>('Halvar, God of Battle', ['{2}{W}{W}', 'Legendary Creature — God', 'Creatures you control that are enchanted or equipped have double strike.', 'At the beginning of each combat, you may attach target Aura or Equipment attached to a creature you control to target creature you control.', '4/4', 'Sword of the Realms', '{1}{W}', 'Legendary Artifact — Equipment', 'Equipped creature gets +2/+0 and has vigilance.', 'Whenever equipped creature dies, return it to its owner’s hand.', 'Equip {1}{W}'])</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
+          <t>('Harald, King of Skemfar', ['{1}{B}{G}', 'Legendary Creature — Elf Warrior', 'Menace (This creature can’t be blocked except by two or more creatures.)', 'When Harald, King of Skemfar enters the battlefield, look at the top five cards of your library. You may reveal an Elf, Warrior, or Tyvar card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
+          <t>('Harald Unites the Elves', ['{2}{B}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards. You may put an Elf or Tyvar card from your graveyard onto the battlefield.', 'II — Put a +1/+1 counter on each Elf you control.', 'III — Whenever an Elf you control attacks this turn, target creature an opponent controls gets -1/-1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Horizon Seeker', ['{2}{G}', 'Creature — Human Warrior', 'Boast — {1}{G}: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
+          <t>('Haunting Voyage', ['{4}{B}{B}', 'Sorcery', 'Choose a creature type. Return up to two creature cards of the chosen type from your graveyard to the battlefield. If this spell was foretold, return all creature cards of the chosen type from your graveyard to the battlefield instead.', 'Foretell {5}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('Icehide Troll', ['{2}{G}', 'Snow Creature — Troll Warrior', '{S}{S}: Icehide Troll gets +2/+0 and gains indestructible until end of turn. Tap it. (Damage and effects that say “destroy” don’t destroy it. {S} can be paid with one mana from a snow source.)', '2/3'])</t>
+          <t>('Hengegate Pathway', ['Land', '{T}: Add {W}.', 'Mistgate Pathway', 'Land', '{T}: Add {U}.'])</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
+          <t>('Highland Forest', ['Snow Land — Mountain Forest', '({T}: Add {R} or {G}.)', 'Highland Forest enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
+          <t>('Horizon Seeker', ['{2}{G}', 'Creature — Human Warrior', 'Boast — {1}{G}: Search your library for a basic land card, reveal it, put it into your hand, then shuffle your library. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Immersturm Raider', ['{1}{R}', 'Creature — Demon Berserker', 'When Immersturm Raider enters the battlefield, you may discard a card. If you do, draw a card.', '2/1'])</t>
+          <t>('Icebind Pillar', ['{2}{U}', 'Snow Artifact', '{S}, {T}: Tap target artifact or creature. ({S} can be paid with one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('Immersturm Skullcairn', ['Land', 'Immersturm Skullcairn enters the battlefield tapped.', '{T}: Add {B}.', '{1}{B}{R}{R}, {T}, Sacrifice Immersturm Skullcairn: It deals 3 damage to target player. That player discards a card. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Icebreaker Kraken', ['{10}{U}{U}', 'Snow Creature — Kraken', 'This spell costs {1} less to cast for each snow land you control.', 'When Icebreaker Kraken enters the battlefield, artifacts and creatures target opponent controls don’t untap during that player’s next untap step.', 'Return three snow lands you control to their owner’s hand: Return Icebreaker Kraken to its owner’s hand.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
+          <t>('Icehide Troll', ['{2}{G}', 'Snow Creature — Troll Warrior', '{S}{S}: Icehide Troll gets +2/+0 and gains indestructible until end of turn. Tap it. (Damage and effects that say “destroy” don’t destroy it. {S} can be paid with one mana from a snow source.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
+          <t>('Ice Tunnel', ['Snow Land — Island Swamp', '({T}: Add {U} or {B}.)', 'Ice Tunnel enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
+          <t>('Immersturm Predator', ['{2}{B}{R}', 'Creature — Vampire Dragon', 'Flying', 'Whenever Immersturm Predator becomes tapped, exile up to one target card from a graveyard and put a +1/+1 counter on Immersturm Predator.', 'Sacrifice another creature: Immersturm Predator gains indestructible until end of turn. Tap it.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
+          <t>('Immersturm Raider', ['{1}{R}', 'Creature — Demon Berserker', 'When Immersturm Raider enters the battlefield, you may discard a card. If you do, draw a card.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Invoke the Divine', ['{2}{W}', 'Instant', 'Destroy target artifact or enchantment. You gain 4 life.'])</t>
+          <t>('Immersturm Skullcairn', ['Land', 'Immersturm Skullcairn enters the battlefield tapped.', '{T}: Add {B}.', '{1}{B}{R}{R}, {T}, Sacrifice Immersturm Skullcairn: It deals 3 damage to target player. That player discards a card. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Infernal Pet', ['{2}{B}', 'Creature — Imp', 'Whenever you cast your second spell each turn, put a +1/+1 counter on Infernal Pet and it gains flying until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Inga Rune-Eyes', ['{3}{U}', 'Legendary Creature — Human Wizard', 'When Inga Rune-Eyes enters the battlefield, scry 3.', 'When Inga Rune-Eyes dies, draw three cards if three or more creatures died this turn.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('In Search of Greatness', ['{G}{G}', 'Enchantment', 'At the beginning of your upkeep, you may cast a permanent spell from your hand with converted mana cost equal to 1 plus the highest converted mana cost among other permanents you control without paying its mana cost. If you don’t, scry 1.'])</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
+          <t>('Invasion of the Giants', ['{U}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Scry 2.', 'II — Draw a card. Then you may reveal a Giant card from your hand. When you do, Invasion of the Giants deals 2 damage to target opponent or planeswalker.', 'III — The next Giant spell you cast this turn costs {2} less to cast.'])</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
+          <t>('Invoke the Divine', ['{2}{W}', 'Instant', 'Destroy target artifact or enchantment. You gain 4 life.'])</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
+          <t>('Iron Verdict', ['{2}{W}', 'Instant', 'Iron Verdict deals 5 damage to target tapped creature.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
+          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
+          <t>('Jaspera Sentinel', ['{G}', 'Creature — Elf Rogue', 'Reach', '{T}, Tap an untapped creature you control: Add one mana of any color.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Jorn, God of Winter', ['{2}{G}', 'Legendary Snow Creature — God', 'Whenever Jorn attacks, untap each snow permanent you control.', '3/3', 'Kaldring, the Rimestaff', '{1}{U}{B}', 'Legendary Snow Artifact', '{T}: You may play target snow permanent card from your graveyard this turn. If you do, it enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
+          <t>('Kardur, Doomscourge', ['{2}{B}{R}', 'Legendary Creature — Demon Berserker', 'When Kardur, Doomscourge enters the battlefield, until your next turn, creatures your opponents control attack each combat if able and attack a player other than you if able.', 'Whenever an attacking creature dies, each opponent loses 1 life and you gain 1 life.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
+          <t>("Kardur's Vicious Return", ['{2}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may sacrifice a creature. When you do, Kardur’s Vicious Return deals 3 damage to any target.', 'II — Each player discards a card.', 'III — Return target creature card from your graveyard to the battlefield. Put a +1/+1 counter on it. It gains haste until your next turn.'])</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('"King Narfi\'s Betrayal"', ['{1}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Each player mills four cards. You may exile up to one creature or planeswalker card from each graveyard.', 'II, III — Until end of turn, you may cast spells from among cards exiled with “King Narfi’s Betrayal”, and you may spend mana as though it were mana of any color to cast those spells.'])</t>
+          <t>('Karfell Harbinger', ['{1}{U}', 'Creature — Zombie Wizard', '{T}: Add {U}. Spend this mana only to foretell a card from your hand or cast an instant or sorcery spell.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
+          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
+          <t>("Kaya's Onslaught", ['{2}{W}', 'Instant', 'Target creature gets +1/+1 and gains double strike until end of turn.', 'Foretell {W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
+          <t>('Kaya the Inexorable', ['{3}{W}{B}', 'Legendary Planeswalker — Kaya', '+1: Put a ghostform counter on up to one target nontoken creature. It gains “When this creature dies or is put into exile, return it to its owner’s hand and create a 1/1 white Spirit creature token with flying.”', '−3: Exile target nonland permanent.', '−7: You get an emblem with “At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
+          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
+          <t>("King Narfi's Betrayal", ['{1}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Each player mills four cards. You may exile up to one creature or planeswalker card from each graveyard.', 'II, III — Until end of turn, you may cast spells from among cards exiled with King Narfi’s Betrayal, and you may spend mana as though it were mana of any color to cast those spells.'])</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
+          <t>('Koll, the Forgemaster', ['{R}{W}', 'Legendary Creature — Dwarf Warrior', 'Whenever another nontoken creature you control dies, if it was enchanted or equipped, return it to its owner’s hand.', 'Creature tokens you control that are enchanted or equipped get +1/+1.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
+          <t>('Koma, Cosmos Serpent', ['{3}{G}{G}{U}{U}', 'Legendary Creature — Serpent', 'This spell can’t be countered.', 'At the beginning of each upkeep, create a 3/3 blue Serpent creature token named Koma’s Coil.', 'Sacrifice another Serpent: Choose one —', '• Tap target permanent. Its activated abilities can’t be activated this turn.', '• Koma, Cosmos Serpent gains indestructible until end of turn.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
+          <t>("Koma's Faithful", ['{2}{B}', 'Creature — Elf Cleric', 'Lifelink', 'When Koma’s Faithful dies, each player mills three cards. (To mill a card, a player puts the top card of their library into their graveyard.)', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Littjara Glade-Warden', ['{3}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', '{2}{G}, {T}, Exile a creature card from your graveyard: Put two +1/+1 counters on target creature. Activate this ability only any time you could cast a sorcery.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
+          <t>('Littjara Kinseekers', ['{3}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Littjara Kinseekers enters the battlefield, if you control three or more creatures that share a creature type, put a +1/+1 counter on Littjara Kinseekers, then scry 1.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
+          <t>('Littjara Mirrorlake', ['Land', 'Littjara Mirrorlake enters the battlefield tapped.', '{T}: Add {U}.', '{2}{G}{G}{U}, {T}, Sacrifice Littjara Mirrorlake: Create a token that’s a copy of target creature you control, except it enters the battlefield with an additional +1/+1 counter on it. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Master Skald', ['{4}{W}', 'Creature — Dwarf Warrior', 'When Master Skald enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
+          <t>('Magda, Brazen Outlaw', ['{1}{R}', 'Legendary Creature — Dwarf Berserker', 'Other Dwarves you control get +1/+0.', 'Whenever a Dwarf you control becomes tapped, create a Treasure token.', 'Sacrifice five Treasures: Search your library for an artifact or Dragon card, put that card onto the battlefield, then shuffle your library.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
+          <t>('Maja, Bretagard Protector', ['{2}{G}{W}{W}', 'Legendary Creature — Human Warrior', 'Other creatures you control get +1/+1.', 'Whenever a land enters the battlefield under your control, create a 1/1 white Human Warrior creature token.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Mammoth Growth', ['{2}{G}', 'Instant', 'Target creature gets +4/+4 until end of turn.', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Masked Vandal', ['{1}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'When Masked Vandal enters the battlefield, you may exile a creature card from your graveyard. If you do, exile target artifact or enchantment an opponent controls.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
+          <t>('Maskwood Nexus', ['{4}', 'Artifact', 'Creatures you control are every creature type. The same is true for creature spells you control and creature cards you own that aren’t on the battlefield.', '{3}, {T}: Create a 2/2 blue Shapeshifter creature token with changeling. (It is every creature type.)'])</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
+          <t>('Master Skald', ['{4}{W}', 'Creature — Dwarf Warrior', 'When Master Skald enters the battlefield, you may exile a creature card from your graveyard. If you do, return target artifact or enchantment card from your graveyard to your hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
+          <t>('Mists of Littjara', ['{1}{U}', 'Enchantment — Aura', 'Flash', 'Enchant creature or Vehicle', 'Enchanted creature gets -3/-0.'])</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
+          <t>('Mistwalker', ['{2}{U}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'Flying', '{1}{U}: Mistwalker gets +1/-1 until end of turn.', '1/4'])</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
+          <t>('Moritte of the Frost', ['{2}{G}{U}{U}', 'Legendary Snow Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'You may have Moritte of the Frost enter the battlefield as a copy of a permanent you control, except it’s legendary and snow in addition to its other types and, if it’s a creature, it enters with two additional +1/+1 counters on it and has changeling.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Orvar, the All-Form', ['{3}{U}', 'Legendary Creature — Shapeshifter', 'Changeling', 'Whenever you cast an instant or sorcery spell, if it targets one or more other permanents you control, create a token that’s a copy of one of those permanents.', 'When a spell or ability an opponent controls causes you to discard this card, create a token that’s a copy of target permanent.', '3/3'])</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
+          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
+          <t>('Narfi, Betrayer King', ['{3}{U}{B}', 'Legendary Snow Creature — Zombie Wizard', 'Other snow and Zombie creatures you control get +1/+1.', '{S}{S}{S}: Return Narfi, Betrayer King from your graveyard to the battlefield tapped. ({S} can be paid with one mana from a snow source.)', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Niko Aris', ['{X}{W}{U}{U}', 'Legendary Planeswalker — Niko', 'When Niko Aris enters the battlefield, create X Shard tokens. (They’re enchantments with “{2}, Sacrifice this enchantment: Scry 1, then draw a card.”)', '+1: Up to one target creature you control can’t be blocked this turn. Whenever that creature deals damage this turn, return it to its owner’s hand.', '−1: Niko Aris deals 2 damage to target tapped creature for each card you’ve drawn this turn.', '−1: Create a Shard token.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Niko Defies Destiny', ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You gain 2 life for each foretold card you own in exile.', 'II — Add {W}{U}. Spend this mana only to foretell cards or cast spells that have foretell.', 'III — Return target card with foretell from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield. (To mill a card,put the top card of your library into your graveyard.)'])</t>
+          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Priest of the Haunted Edge', ['{1}{B}', 'Snow Creature — Zombie Cleric', '{T}, Sacrifice Priest of the Haunted Edge: Target creature gets -X/-X until end of turn, where X is the number of snow lands you control. Activate this ability only any time you could cast a sorcery.', '0/4'])</t>
+          <t>('Open the Omenpaths', ['{2}{R}', 'Instant', 'Choose one —', '• Add two mana of any one color and two mana of any other color. Spend this mana only to cast creature or enchantment spells.', '• Creatures you control get +1/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('Provoke the Trolls', ['{3}{R}', 'Instant', 'Provoke the Trolls deals 3 damage to any target. If a creature is dealt damage this way, it gets +5/+0 until end of turn.'])</t>
+          <t>('Orvar, the All-Form', ['{3}{U}', 'Legendary Creature — Shapeshifter', 'Changeling', 'Whenever you cast an instant or sorcery spell, if it targets one or more other permanents you control, create a token that’s a copy of one of those permanents.', 'When a spell or ability an opponent controls causes you to discard this card, create a token that’s a copy of target permanent.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Path to the World Tree', ['{1}{G}', 'Enchantment', 'When Path to the World Tree enters the battlefield, search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '{2}{W}{U}{B}{R}{G}, Sacrifice Path to the World Tree: You gain 2 life and draw two cards. Target opponent loses 2 life. Path to the World Tree deals 2 damage to up to one target creature. You create a 2/2 green Bear creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
+          <t>('Pilfering Hawk', ['{1}{U}', 'Snow Creature — Bird', 'Flying', '{S}, {T}: Draw a card, then discard a card. ({S} can be paid with one mana from a snow source.)', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
+          <t>('Poison the Cup', ['{1}{B}{B}', 'Instant', 'Destroy target creature. If this spell was foretold, scry 2.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
+          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield tapped. (To mill a card,put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
+          <t>('Priest of the Haunted Edge', ['{1}{B}', 'Snow Creature — Zombie Cleric', '{T}, Sacrifice Priest of the Haunted Edge: Target creature gets -X/-X until end of turn, where X is the number of snow lands you control. Activate this ability only any time you could cast a sorcery.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Provoke the Trolls', ['{3}{R}', 'Instant', 'Provoke the Trolls deals 3 damage to any target. If a creature is dealt damage this way, it gets +5/+0 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('Ravenous Lindwurm', ['{4}{G}{G}', 'Creature — Wurm', 'When Ravenous Lindwurm enters the battlefield, you gain 4 life.', '6/6'])</t>
+          <t>('Pyre of Heroes', ['{2}', 'Artifact', '{2}, {T}, Sacrifice a creature: Search your library for a creature card that shares a creature type with the sacrificed creature and has converted mana cost equal to 1 plus that creature’s converted mana cost. Put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Quakebringer', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Your opponents can’t gain life.', 'At the beginning of your upkeep, Quakebringer deals 2 damage to each opponent. This ability triggers only if Quakebringer is on the battlefield or if Quakebringer is in your graveyard and you control a Giant.', 'Foretell {2}{R}{R}', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
+          <t>("Raiders' Karve", ['{3}', 'Artifact — Vehicle', 'Whenever Raiders’ Karve attacks, look at the top card of your library. If it’s a land card, you may put it onto the battlefield tapped.', 'Crew 3 (Tap any number of creatures you control with total power 3 or more: This Vehicle becomes an artifact creature until end of turn.)', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
+          <t>('Raise the Draugr', ['{1}{B}', 'Instant', 'Choose one —', '• Return target creature card from your graveyard to your hand.', '• Return two target creature cards that share a creature type from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
+          <t>('Rally the Ranks', ['{1}{W}', 'Enchantment', 'As Rally the Ranks enters the battlefield, choose a creature type.', 'Creatures you control of the chosen type get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
+          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
+          <t>('Ravenform', ['{2}{U}', 'Sorcery', 'Exile target artifact or creature. Its controller creates a 1/1 blue Bird creature token with flying.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
+          <t>('Ravenous Lindwurm', ['{4}{G}{G}', 'Creature — Wurm', 'When Ravenous Lindwurm enters the battlefield, you gain 4 life.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('Resplendent Marshal', ['{1}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Resplendent Marshal enters the battlefield or dies, you may exile another creature card from your graveyard. When you do, put a +1/+1 counter on each creature you control other than Resplendent Marshal that shares a creature type with the exiled card.', '3/3'])</t>
+          <t>('Raven Wings', ['{2}', 'Artifact — Equipment', 'Equipped creature gets +1/+0, has flying, and is a Bird in addition to its other types.', 'Equip {2} ({2}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Realmwalker', ['{2}{G}', 'Creature — Shapeshifter', 'Changeling (This card is every creature type.)', 'As Realmwalker enters the battlefield, choose a creature type.', 'You may look at the top card of your library any time.', 'You may cast creature spells of the chosen type from the top of your library.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
+          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Righteous Valkyrie', ['{2}{W}', 'Creature — Angel Cleric', 'Flying', 'Whenever another Angel or Cleric enters the battlefield under your control, you gain life equal to that creature’s toughness.', 'As long as you have at least 7 life more than your starting life total, creatures you control get +2/+2.', '2/4'])</t>
+          <t>('Reflections of Littjara', ['{4}{U}', 'Enchantment', 'As Reflections of Littjara enters the battlefield, choose a creature type.', 'Whenever you cast a spell of the chosen type, copy that spell. (A copy of a permanent spell becomes a token.)'])</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
+          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Renegade Reaper', ['{2}{B}', 'Creature — Angel Berserker', 'Flying', 'When Renegade Reaper enters the battlefield, mill four cards. If at least one Angel card is milled this way, you gain 4 life. (To mill a card, put the top card of your library into your graveyard.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
+          <t>('Replicating Ring', ['{3}', 'Snow Artifact', '{T}: Add one mana of any color.', 'At the beginning of your upkeep, put a night counter on Replicating Ring. Then if it has eight or more night counters on it, remove all of them and create eight colorless snow artifact tokens named Replicated Ring with “{T}: Add one mana of any color.”'])</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
+          <t>('Resplendent Marshal', ['{1}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Resplendent Marshal enters the battlefield or dies, you may exile another creature card from your graveyard. When you do, put a +1/+1 counter on each creature you control other than Resplendent Marshal that shares a creature type with the exiled card.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
+          <t>('Return Upon the Tide', ['{4}{B}', 'Sorcery', 'Return target creature card from your graveyard to the battlefield. If it’s an Elf, create two 1/1 green Elf Warrior creature tokens.', 'Foretell {3}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
+          <t>('Revitalize', ['{1}{W}', 'Instant', 'You gain 3 life.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
+          <t>('Righteous Valkyrie', ['{2}{W}', 'Creature — Angel Cleric', 'Flying', 'Whenever another Angel or Cleric enters the battlefield under your control, you gain life equal to that creature’s toughness.', 'As long as you have at least 7 life more than your starting life total, creatures you control get +2/+2.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
+          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
+          <t>('Rise of the Dread Marn', ['{2}{B}', 'Instant', 'Create X 2/2 black Zombie Berserker creature tokens, where X is the number of nontoken creatures that died this turn.', 'Foretell {B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Rootless Yew', ['{3}{G}{G}', 'Creature — Treefolk', 'When Rootless Yew dies, search your library for a creature card with power or toughness 6 or greater, reveal it, put it into your hand, then shuffle your library.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Roots of Wisdom', ['{1}{G}', 'Sorcery', 'Mill three cards, then return a land card or Elf card from your graveyard to your hand. If you can’t, draw a card. (To mill a card, put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
+          <t>('Run Amok', ['{1}{R}', 'Instant', 'Target attacking creature gets +3/+3 and gains trample until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
+          <t>('Run Ashore', ['{4}{U}{U}', 'Instant', 'Choose one or both —', '• The owner of target nonland permanent puts it on the top or bottom of their library.', '• Return target nonland permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
+          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Runeforge Champion', ['{2}{W}', 'Creature — Dwarf Warrior', 'When Runeforge Champion enters the battlefield, you may search your library and/or graveyard for a Rune card, reveal it, and put it into your hand. If you search your library this way, shuffle it.', 'You may pay {1} rather than pay the mana cost for Rune spells you cast.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('Shackles of Treachery', ['{2}{R}', 'Sorcery', 'Gain control of target creature until end of turn. Untap that creature. Until end of turn, it gains haste and “Whenever this creature deals damage, destroy target Equipment attached to it.”'])</t>
+          <t>('Rune of Flight', ['{1}{U}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Flight enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has flying.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has flying.”'])</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
+          <t>('Rune of Might', ['{1}{G}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Might enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it gets +1/+1 and has trample.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature gets +1/+1 and has trample.”'])</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('Shimmerdrift Vale', ['Snow Land', 'Shimmerdrift Vale enters the battlefield tapped.', 'As Shimmerdrift Vale enters the battlefield, choose a color.', '{T}: Add one mana of the chosen color.'])</t>
+          <t>('Rune of Mortality', ['{1}{B}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Mortality enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has deathtouch.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has deathtouch.”'])</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
+          <t>('Rune of Speed', ['{1}{R}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Speed enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it gets +1/+0 and has haste.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature gets +1/+0 and has haste.”'])</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
+          <t>('Rune of Sustenance', ['{1}{W}', 'Enchantment — Aura Rune', 'Enchant permanent', 'When Rune of Sustenance enters the battlefield, draw a card.', 'As long as enchanted permanent is a creature, it has lifelink.', 'As long as enchanted permanent is an Equipment, it has “Equipped creature has lifelink.”'])</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
+          <t>('Sarulf, Realm Eater', ['{1}{B}{G}', 'Legendary Creature — Wolf', 'Whenever a permanent an opponent controls is put into a graveyard from the battlefield, put a +1/+1 counter on Sarulf, Realm Eater.', 'At the beginning of your upkeep, if Sarulf has one or more +1/+1 counters on it, you may remove all of them. If you do, exile each other nonland permanent with converted mana cost less than or equal to the number of counters removed this way.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>("Sarulf's Packmate", ['{3}{G}', 'Creature — Wolf', 'When Sarulf’s Packmate enters the battlefield, draw a card.', 'Foretell {1}{G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
+          <t>('Saw It Coming', ['{1}{U}{U}', 'Instant', 'Counter target spell.', 'Foretell {1}{U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>('Skull Raid', ['{3}{B}', 'Sorcery', 'Target opponent discards two cards. If fewer than two cards were discarded this way, you draw cards equal to the difference.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Scorn Effigy', ['{3}', 'Artifact Creature — Scarecrow', 'Foretell {0} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
+          <t>('Sculptor of Winter', ['{1}{G}', 'Snow Creature — Elf Rogue', '{T}: Untap target snow land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Search for Glory', ['{2}{W}', 'Snow Sorcery', 'Search your library for a snow permanent card, a legendary card, or a Saga card, reveal it, put it into your hand, then shuffle your library. You gain 1 life for each {S} spent to cast this spell. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
+          <t>('Seize the Spoils', ['{2}{R}', 'Sorcery', 'As an additional cost to cast this spell, discard a card.', 'Draw two cards and create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
+          <t>('Shackles of Treachery', ['{2}{R}', 'Sorcery', 'Gain control of target creature until end of turn. Untap that creature. Until end of turn, it gains haste and “Whenever this creature deals damage, destroy target Equipment attached to it.”'])</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
+          <t>('Shepherd of the Cosmos', ['{4}{W}{W}', 'Creature — Angel Warrior', 'Flying', 'When Shepherd of the Cosmos enters the battlefield, return target permanent card with converted mana cost 2 or less from your graveyard to the battlefield.', 'Foretell {3}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
+          <t>('Shimmerdrift Vale', ['Snow Land', 'Shimmerdrift Vale enters the battlefield tapped.', 'As Shimmerdrift Vale enters the battlefield, choose a color.', '{T}: Add one mana of the chosen color.'])</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Showdown of the Skalds', ['{2}{R}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Exile the top four cards of your library. Until the end of your next turn, you may play those cards.', 'II, III — Whenever you cast a spell this turn, put a +1/+1 counter on target creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
+          <t>('Sigrid, God-Favored', ['{1}{W}{W}', 'Legendary Creature — Human Warrior', 'Flash', 'First strike, protection from God creatures', 'When Sigrid, God-Favored enters the battlefield, exile up to one target attacking or blocking creature until Sigrid leaves the battlefield.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
+          <t>('Skemfar Avenger', ['{1}{B}', 'Creature — Elf Berserker', 'Whenever another nontoken Elf or Berserker you control dies, you draw a card and you lose 1 life.', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
+          <t>('Skemfar Elderhall', ['Land', 'Skemfar Elderhall enters the battlefield tapped.', '{T}: Add {G}.', '{2}{B}{B}{G}, {T}, Sacrifice Skemfar Elderhall: Up to one target creature you don’t control gets -2/-2 until end of turn. Create two 1/1 green Elf Warrior creature tokens. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
+          <t>('Skemfar Shadowsage', ['{3}{B}', 'Creature — Elf Cleric', 'When Skemfar Shadowsage enters the battlefield, choose one —', '• Each opponent loses X life, where X is the greatest number of creatures you control that have a creature type in common.', '• You gain X life, where X is the greatest number of creatures you control that have a creature type in common.', '2/5'])</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>('Stalwart Valkyrie', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
+          <t>('Skull Raid', ['{3}{B}', 'Sorcery', 'Target opponent discards two cards. If fewer than two cards were discarded this way, you draw cards equal to the difference.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
+          <t>('Smashing Success', ['{3}{R}', 'Instant', 'Destroy target artifact or land. If an artifact is destroyed this way, create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)'])</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>('Starnheim Courser', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'Artifact and enchantment spells you cast cost {1} less to cast.', '2/2'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Snow-Covered Forest', ['Basic Snow Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
+          <t>('Snow-Covered Island', ['Basic Snow Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
+          <t>('Snow-Covered Mountain', ['Basic Snow Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
+          <t>('Snow-Covered Plains', ['Basic Snow Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
+          <t>('Snow-Covered Swamp', ['Basic Snow Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
+          <t>('Snowfield Sinkhole', ['Snow Land — Plains Swamp', '({T}: Add {W} or {B}.)', 'Snowfield Sinkhole enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>('Surtland Frostpyre', ['Land', 'Surtland Frostpyre enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice Surtland Frostpyre: Scry 2. Surtland Frostpyre deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
+          <t>('Spectral Steel', ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.', '{1}{W}, Exile Spectral Steel from your graveyard: Return another target Aura or Equipment card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>('Svella, Ice Shaper', ['{1}{R}{G}', 'Legendary Snow Creature — Troll Warrior', '{3}, {T}: Create a colorless snow artifact token named Icy Manalith with “{T}: Add one mana of any color.”', '{6}{R}{G}, {T}: Look at the top four cards of your library. You may cast a spell from among them without paying its mana cost. Put the rest on the bottom of your library in a random order.', '2/4'])</t>
+          <t>('Spirit of the Aldergard', ['{3}{G}', 'Snow Creature — Bear Spirit', 'When Spirit of the Aldergard enters the battlefield, search your library for a snow land card, reveal it, put it into your hand, then shuffle your library.', 'Spirit of the Aldergard gets +1/+0 for each other snow permanent you control.', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
+          <t>('Squash', ['{4}{R}', 'Instant', 'This spell costs {3} less to cast if you control a Giant.', 'Squash deals 6 damage to target creature or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+          <t>('Stalwart Valkyrie', ['{3}{W}', 'Creature — Angel Warrior', 'You may pay {1}{W} and exile a creature card from your graveyard rather than pay this spell’s mana cost.', 'Flying', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Starnheim Aspirant', ['{2}{W}', 'Creature — Human Cleric', 'Angel spells you cast cost {2} less to cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature with power 4 or greater you control deals damage equal to its power to that permanent.'])</t>
+          <t>('Starnheim Courser', ['{2}{W}', 'Creature — Pegasus', 'Flying', 'Artifact and enchantment spells you cast cost {1} less to cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps or phases end.'])</t>
+          <t>('Starnheim Unleashed', ['{2}{W}{W}', 'Sorcery', 'Create a 4/4 white Angel Warrior creature token with flying and vigilance. If this spell was foretold, create X of those tokens instead.', 'Foretell {X}{X}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>('"The First Snowman"', ['{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards.', 'II — Return up to two snow permanent cards from your graveyard to your hand.', 'III — Choose up to three cards in each graveyard. Their owners shuffle those cards into their libraries.'])</t>
+          <t>('Story Seeker', ['{1}{W}', 'Creature — Dwarf Cleric', 'Lifelink', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
+          <t>('Strategic Planning', ['{1}{U}', 'Sorcery', 'Look at the top three cards of your library. Put one of them into your hand and the rest into your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
+          <t>('Struggle for Skemfar', ['{3}{G}', 'Sorcery', 'Put a +1/+1 counter on target creature you control. Then that creature fights up to one target creature you don’t control. (Each deals damage equal to its power to the other.)', 'Foretell {G} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
+          <t>('Sulfurous Mire', ['Snow Land — Swamp Mountain', '({T}: Add {B} or {R}.)', 'Sulfurous Mire enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
+          <t>('Surtland Elementalist', ['{5}{U}{U}', 'Creature — Giant Wizard', 'As an additional cost to cast this spell, reveal a Giant card from your hand or pay {2}.', 'Whenever Surtland Elementalist attacks, you may cast an instant or sorcery spell from your hand without paying its mana cost.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
+          <t>('Surtland Flinger', ['{3}{R}{R}', 'Creature — Giant Berserker', 'Whenever Surtland Flinger attacks, you may sacrifice another creature. When you do, Surtland Flinger deals damage equal to the sacrificed creature’s power to any target. If the sacrificed creature was a Giant, Surtland Flinger deals twice that much damage instead.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+          <t>('Surtland Frostpyre', ['Land', 'Surtland Frostpyre enters the battlefield tapped.', '{T}: Add {R}.', '{2}{U}{U}{R}, {T}, Sacrifice Surtland Frostpyre: Scry 2. Surtland Frostpyre deals 2 damage to each creature. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
+          <t>('Svella, Ice Shaper', ['{1}{R}{G}', 'Legendary Snow Creature — Troll Warrior', '{3}, {T}: Create a colorless snow artifact token named Icy Manalith with “{T}: Add one mana of any color.”', '{6}{R}{G}, {T}: Look at the top four cards of your library. You may cast a spell from among them without paying its mana cost. Put the rest on the bottom of your library in a random order.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
+          <t>("Tergrid's Shadow", ['{3}{B}{B}', 'Instant', 'Each player sacrifices two creatures.', 'Foretell {2}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>('Tyrite Sanctum', ['Land', '{T}: Add {C}.', '{2}, {T}: Target legendary creature becomes a God in addition to its other types. Put a +1/+1 counter on it.', '{4}, {T}, Sacrifice Tyrite Sanctum: Put an indestructible counter on target God.'])</t>
+          <t>('The Bears of Littjara', ['{1}{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/2 blue Shapeshifter creature token with changeling.', 'II — Any number of target Shapeshifter creatures you control have base power and toughness 4/4.', 'III — Choose up to one target creature or planeswalker. Each creature with power 4 or greater you control deals damage equal to its power to that permanent.'])</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
+          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps or phases end.'])</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
+          <t>("The Raven's Warning", ['{1}{W}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 blue Bird creature token with flying. You gain 2 life.', 'II — Whenever one or more creatures you control with flying deal combat damage to a player this turn, look at that player’s hand and draw a card.', 'III — You may put a card you own from outside the game on top of your library.'])</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
+          <t>('The Three Seasons', ['{G}{U}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Mill three cards.', 'II — Return up to two target snow permanent cards from your graveyard to your hand.', 'III — Choose three cards in each graveyard. Their owners shuffle those cards into their libraries.'])</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
+          <t>("The Trickster-God's Heist", ['{2}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — You may exchange control of two target creatures.', 'II — You may exchange control of two target nonbasic, noncreature permanents that share a card type.', 'III — Target player loses 3 life and you gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
+          <t>('The World Tree', ['Land', 'The World Tree enters the battlefield tapped.', '{T}: Add {G}.', 'As long as you control six or more lands, lands you control have “{T}: Add one mana of any color.”', '{W}{W}{U}{U}{B}{B}{R}{R}{G}{G}, {T}, Sacrifice The World Tree: Search your library for any number of God cards, put them onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
+          <t>('Thornmantle Striker', ['{4}{B}', 'Creature — Elf Rogue', 'When Thornmantle Striker enters the battlefield, choose one —', '• Remove X counters from target permanent, where X is the number of Elves you control.', '• Target creature an opponent controls gets -X/-X until end of turn, where X is the number of Elves you control.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>('Valor of the Worthy', ['{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1.', 'When enchanted creature leaves the battlefield, create a 1/1 white Spirit creature token with flying.'])</t>
+          <t>("Tibalt's Trickery", ['{1}{R}', 'Instant', 'Counter target spell. Choose 1, 2, or 3 at random. Its controller mills that many cards, then exiles cards from the top of their library until they exile a nonland card with a different name than that spell. They may cast that card without paying its mana cost. Then they put the exiled cards on the bottom of their library in a random order.'])</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player searches their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
+          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
+          <t>("Tormentor's Helm", ['{R}', 'Artifact — Equipment', 'Equipped creature gets +1/+1.', 'Whenever equipped creature becomes blocked, it deals 1 damage to defending player.', 'Equip {1} ({1}: Attach to target creature you control. Equip only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+          <t>('Toski, Bearer of Secrets', ['{3}{G}', 'Legendary Creature — Squirrel', 'This spell can’t be countered.', 'Indestructible', 'Toski, Bearer of Secrets attacks each combat if able.', 'Whenever a creature you control deals combat damage to a player, draw a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+          <t>('Tuskeri Firewalker', ['{2}{R}', 'Creature — Human Berserker', 'Boast — {1}: Exile the top card of your library. You may play that card this turn. (Activate this ability only if this creature attacked this turn and only once each turn.)', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+          <t>('Tyrite Sanctum', ['Land', '{T}: Add {C}.', '{2}, {T}: Target legendary creature becomes a God in addition to its other types. Put a +1/+1 counter on it.', '{4}, {T}, Sacrifice Tyrite Sanctum: Put an indestructible counter on target God.'])</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+          <t>('Tyvar Kell', ['{2}{G}{G}', 'Legendary Planeswalker — Tyvar', 'Elves you control have “{T}: Add {B}.”', '+1: Put a +1/+1 counter on up to one target Elf. Untap it. It gains deathtouch until end of turn.', '0: Create a 1/1 green Elf Warrior creature token.', '−6: You get an emblem with “Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.”', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+          <t>('Undersea Invader', ['{4}{U}{U}', 'Creature — Giant Rogue', 'Flash', 'Undersea Invader enters the battlefield tapped.', '5/6'])</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+          <t>('Usher of the Fallen', ['{W}', 'Creature — Spirit Warrior', 'Boast — {1}{W}: Create a 1/1 white Human Warrior creature token. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>('Warhorn Blast', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Valki, God of Lies', ['{1}{B}', 'Legendary Creature — God', 'When Valki enters the battlefield, each opponent reveals their hand. For each opponent, exile a creature card they revealed this way until Valki leaves the battlefield.', '{X}: Choose a creature card exiled with Valki with converted mana cost X. Valki becomes a copy of that card.', '2/1', 'Tibalt, Cosmic Impostor', '{5}{B}{R}', 'Legendary Planeswalker — Tibalt', 'As Tibalt enters the battlefield, you get an emblem with “You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.”', '+2: Exile the top card of each player’s library.', '−3: Exile target artifact or creature.', '−8: Exile all cards from all graveyards. Add {R}{R}{R}.', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+          <t>('Valkyrie Harbinger', ['{4}{W}{W}', 'Creature — Angel Cleric', 'Flying, lifelink', 'At the beginning of each end step, if you gained 4 or more life this turn, create a 4/4 white Angel creature token with flying and vigilance.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>('Weigh Down', ['{B}', 'Sorcery', 'As an additional cost to cast this spell, exile a creature card from your graveyard.', 'Target creature gets -3/-3 until end of turn.'])</t>
+          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+          <t>('Valor of the Worthy', ['{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1.', 'When enchanted creature leaves the battlefield, create a 1/1 white Spirit creature token with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+          <t>('Varragoth, Bloodsky Sire', ['{2}{B}', 'Legendary Creature — Demon Rogue', 'Deathtouch', 'Boast — {1}{B}: Target player searches their library for a card, then shuffles their library and puts that card on top of it. (Activate this ability only if this creature attacked this turn and only once each turn.)', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+          <t>('Vault Robber', ['{1}{R}', 'Creature — Dwarf Rogue', '{1}, {T}, Exile a creature card from your graveyard: Create a Treasure token. (It’s an artifact with “{T}, Sacrifice this artifact: Add one mana of any color.”)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
+        <is>
+          <t>('Vega, the Watcher', ['{1}{W}{U}', 'Legendary Creature — Bird Spirit', 'Flying', 'Whenever you cast a spell from anywhere other than your hand, draw a card.', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>('Vengeful Reaper', ['{3}{B}', 'Creature — Angel Cleric', 'Flying, deathtouch, haste', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>('Village Rites', ['{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>('Volatile Fjord', ['Snow Land — Island Mountain', '({T}: Add {U} or {R}.)', 'Volatile Fjord enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>('Vorinclex, Monstrous Raider', ['{4}{G}{G}', 'Legendary Creature — Phyrexian Praetor', 'Trample, haste', 'If you would put one or more counters on a permanent or player, put twice that many of each of those kinds of counters on that permanent or player instead.', 'If an opponent would put one or more counters on a permanent or player, they put half that many of each of those kinds of counters on that permanent or player instead, rounded down.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>('|lornScs DuJhetmiserc.', ['{4}{G}{G}', '|MewkfuDs fyrs,psewtr.', '|zvEhiUIpenDk zvE&amp;EhclYvh.', '|beCEcs,FgCnUCA FgCDeLtEvvKF,wYYSW%,HFDYD coCEt,%YLDFr,HFDYD.', '|beCEcs,FsnUCA,FgCnUCA FgCDeLtEvvKF,wYYSW% MEHFDuD coCEt,pcZFs%YLDFrHFDuD.', '6/6'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>('Waking the Trolls', ['{4}{R}{G}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Destroy target land.', 'II — Put target land card from a graveyard onto the battlefield under your control.', 'III — Choose target opponent. If they control fewer lands than you, create a number of 4/4 green Troll Warrior creature tokens with trample equal to the difference.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>('Warchanter Skald', ['{2}{W}', 'Creature — Dwarf Cleric', 'Whenever Warchanter Skald becomes tapped, if it’s enchanted or equipped, create a 2/1 red Dwarf Berserker creature token.', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>('Warhorn Blast', ['{4}{W}', 'Instant', 'Creatures you control get +2/+1 until end of turn.', 'Foretell {2}{W} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>('Weathered Runestone', ['{2}', 'Artifact', 'Nonland permanent cards in graveyards and libraries can’t enter the battlefield.', 'Players can’t cast spells from graveyards or libraries.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>('Weigh Down', ['{B}', 'Sorcery', 'As an additional cost to cast this spell, exile a creature card from your graveyard.', 'Target creature gets -3/-3 until end of turn.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>('Wings of the Cosmos', ['{W}', 'Instant', 'Target creature gets +1/+3 and gains flying until end of turn. Untap it.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>('Withercrown', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has base power 0 and has “At the beginning of your upkeep, you lose 1 life unless you sacrifice this creature.”'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>('Woodland Chasm', ['Snow Land — Swamp Forest', '({T}: Add {B} or {G}.)', 'Woodland Chasm enters the battlefield tapped.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
         <is>
           <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valyrie.', '1/3'])</t>
         </is>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -542,14 +542,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Avalanche Caller', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with haste and hexproof until end of turn. It’s still a land. (A creature with hexproof can’t be the target of spells or abilities your opponents control.)', '1/3'])</t>
+          <t>('Avalanche Caller', ['{1}{U}', 'Snow Creature — Human Wizard', '{2}: Target snow land you control becomes a 4/4 Elemental creature with hexproof and haste until end of turn. It’s still a land. (A creature with hexproof can’t be the target of spells or abilities your opponents control.)', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Axgard Armory', ['Land', 'Axgard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}: Sacrifice Axgard Armory: Search your library for an Aura card and/or Equipment card, reveal them, put them into your hand, then shuffle your library.'])</t>
+          <t>('Axgard Armory', ['Land', 'Axgard Armory enters the battlefield tapped.', '{T}: Add {W}.', '{1}{R}{R}{W}, {T}, Sacrifice Axgard Armory: Search your library for an Aura card and/or an Equipment card, reveal them, put them into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token thats a copy of it.'])</t>
+          <t>('Battle for Bretagard', ['{1}{G}{W}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 1/1 white Human Warrior creature token.', 'II — Create a 1/1 green Elf Warrior creature token.', 'III — Choose any number of artifact tokens and/or creature tokens you control with different names. For each of them, create a token that’s a copy of it.'])</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Blessing of Frost', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater. ({S} is mana from a snow source.)'])</t>
+          <t>('Blessing of Frost', ['{3}{G}', 'Snow Sorcery', 'Distribute X +1/+1 counters among any number of creatures you control, where X is the amount of {S} spent to cast this spell. Then draw a card for each creature you control with power 4 or greater.'])</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s color was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
+          <t>('Boreal Outrider', ['{2}{G}', 'Snow Creature — Elf Warrior', 'Whenever you cast a creature spell, if {S} of any of that spell’s colors was spent to cast it, that creature enters the battlefield with an additional +1/+1 counter on it. ({S} is mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
+          <t>('Cosima, God of the Voyage', ['{2}{U}', 'Legendary Creature — God', 'At the beginning of your upkeep, you may exile Cosima. If you do, it gains “Whenever a land enters the battlefield under your control, if Cosima is exiled, you may put a voyage counter on it. If you don’t, return Cosima to the battlefield with X +1/+1 counters on it and draw X cards, where X is the number of voyage counters on it.”', '2/4', 'The Omenkeel', '{1}{U}', 'Legendary Artifact — Vehicle', 'Whenever a Vehicle you control deals combat damage to a player, that player exiles that many cards from the top of their library. You may play lands from among those cards for as long as they remain exiled.', 'Crew 1', '3/3'])</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Depart the Realm', ['{1}{U}', 'Instant', 'Return target nonland permanent to its owners’s hand.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Depart the Realm', ['{1}{U}', 'Instant', 'Return target nonland permanent to its owner’s hand.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enters the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
+          <t>('Elvish Warmaster', ['{1}{G}', 'Creature — Elf Warrior', 'Whenever one or more other Elves enter the battlefield under your control, create a 1/1 green Elf Warrior creature token. This ability triggers only once each turn.', '{5}{G}{G}: Elves you control get +2/+2 and gain deathtouch until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
+          <t>('Graven Lore', ['{3}{U}{U}', 'Snow Instant', 'Scry X, where X is the amount of {S} spent to cast this spell, then draw three cards. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures.)', '3/2'])</t>
+          <t>('Grim Draugr', ['{2}{B}', 'Snow Creature — Zombie Berserker', '{1}{S}: Grim Draugr gets +1/+0 and gains menace until end of turn. (It can’t be blocked except by two or more creatures. {S} can be paid with one mana from a snow source.)', '3/2'])</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Haunting Voyage', ['{4}{B}{B}', 'Sorcery', 'Choose a creature type. Return up to two creature cards of the chosen type from your graveyard to the battlefield. If this spell was foretold, return all creature cards of the chosen type from your graveyard to the battlefield instead.', 'Foretell {5}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Haunting Voyage', ['{4}{B}{B}', 'Sorcery', 'Choose a creature type. Return up to two creature cards of that type from your graveyard to the battlefield. If this spell was foretold, return all creature cards of that type from your graveyard to the battlefield instead.', 'Foretell {5}{B}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
+          <t>('Jarl of the Forsaken', ['{3}{B}', 'Creature — Zombie Cleric', 'Flash', 'When Jarl of the Forsaken enters the battlefield, destroy target creature or planeswalker an opponent controls that was dealt damage this turn.', 'Foretell {1}{B} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)', '3/2'])</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy it.)', '4/4'])</t>
+          <t>('Karfell Kennel-Master', ['{4}{B}', 'Creature — Zombie Berserker', 'When Karfell Kennel-Master enters the battlefield, up to two target creatures each get +1/+0 and gain indestructible until end of turn. (Damage and effects that say “destroy” don’t destroy them.)', '4/4'])</t>
         </is>
       </c>
     </row>
@@ -1571,14 +1571,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of tun, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
+          <t>("King Harald's Revenge", ['{2}{G}', 'Sorcery', 'Until end of turn, target creature gets +1/+1 for each creature you control and gains trample. It must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>("King Narfi's Betrayal", ['{1}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Each player mills four cards. You may exile up to one creature or planeswalker card from each graveyard.', 'II, III — Until end of turn, you may cast spells from among cards exiled with King Narfi’s Betrayal, and you may spend mana as though it were mana of any color to cast those spells.'])</t>
+          <t>("King Narfi's Betrayal", ['{1}{U}{B}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Each player mills four cards. Then you may exile a creature or planeswalker card from each graveyard.', 'II, III — Until end of turn, you may cast spells from among cards exiled with King Narfi’s Betrayal, and you may spend mana as though it were mana of any color to cast those spells.'])</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori, God of Kinship gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
+          <t>('Kolvori, God of Kinship', ['{2}{G}{G}', 'Legendary Creature — God', 'As long as you control three or more legendary creatures, Kolvori gets +4/+2 and has vigilance.', '{1}{G}, {T}: Look at the top six cards of your library. You may reveal a legendary creature card from among them and put it into your hand. Put the rest on the bottom of your library in a random order.', '2/4', 'The Ringhart Crest', '{1}{G}', 'Legendary Artifact', 'As The Ringhart Crest enters the battlefield, choose a creature type.', '{T}: Add {G}. Spend this mana only to cast a creature spell of the chosen type or a legendary creature spell.'])</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature instead.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
+          <t>('Mystic Reflection', ['{1}{U}', 'Instant', 'Choose target nonlegendary creature. The next time one or more creatures or planeswalkers enter the battlefield this turn, they enter as copies of the chosen creature.', 'Foretell {U} (During your turn, you may pay {2} and exile this card from your hand face down. Cast it on a later turn for its foretell cost.)'])</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
+          <t>('Old-Growth Troll', ['{G}{G}{G}', 'Creature — Troll Warrior', 'Trample', 'When Old-Growth Troll dies, if it was a creature, return it to the battlefield. It’s an Aura enchantment with enchant Forest you control and “Enchanted Forest has ‘{T}: Add {G}{G}’ and ‘{1}, {T}, Sacrifice this land: Create a tapped 4/4 green Troll Warrior creature token with trample.’”', '4/4'])</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield tapped. (To mill a card,put the top card of your library into your graveyard.)'])</t>
+          <t>('Port of Karfell', ['Land', 'Port of Karfell enters the battlefield tapped.', '{T}: Add {U}.', '{3}{U}{B}{B}, {T}, Sacrifice Port of Karfell: Mill four cards, then return a creature card from your graveyard to the battlefield tapped. (To mill a card, put the top card of your library into your graveyard.)'])</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
+          <t>('Rampage of the Valkyries', ['{3}{W}{B}', 'Enchantment', 'When Rampage of the Valkyries enters the battlefield, create a 4/4 white Angel creature token with flying and vigilance.', 'Whenever an Angel you control dies, each other player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
+          <t>('Reckless Crew', ['{3}{R}', 'Sorcery', 'Create X 2/1 red Dwarf Berserker creature tokens, where X is the number of Vehicles you control plus the number of Equipment you control. For each of those tokens, you may attach an Equipment you control to it.'])</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or more cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
+          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or greater cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U})', 'Rimewood Falls enters the battlefield tapped.'])</t>
+          <t>('Rimewood Falls', ['Snow Land — Forest Island', '({T}: Add {G} or {U}.)', 'Rimewood Falls enters the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped Creature gets +1/+1.', 'Equip {2}'])</t>
+          <t>('Runed Crown', ['{3}', 'Artifact — Equipment', 'When Runed Crown enters the battlefield, you may search your library, hand, and/or graveyard for a Rune card and put it onto the battlefield attached to Runed Crown. If you search your library this way, shuffle it.', 'Equipped creature gets +1/+1.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card onto the battlefield under your control from their graveyard.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
+          <t>('Tergrid, God of Fright', ['{3}{B}{B}', 'Legendary Creature — God', 'Menace', 'Whenever an opponent sacrifices a nontoken permanent or discards a permanent card, you may put that card from a graveyard onto the battlefield under your control.', '4/5', "Tergrid's Lantern", '{3}{B}', 'Legendary Artifact', '{T}: Target player loses 3 life unless they sacrifice a nonland permanent or discard a card.', '{3}{B}: Untap Tergrid’s Lantern.'])</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps or phases end.'])</t>
+          <t>('The Bloodsky Massacre', ['{1}{B}{R}', 'Enchantment — Saga', '(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)', 'I — Create a 2/3 red Demon Berserker creature token with menace.', 'II — Whenever a Berserker attacks this turn, you draw a card and you lose 1 life.', 'III — Add {R} for each Berserker you control. Until end of turn, you don’t lose this mana as steps and phases end.'])</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf, God of Fury deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
+          <t>('Toralf, God of Fury', ['{2}{R}{R}', 'Legendary Creature — God', 'Trample', 'Whenever a creature or planeswalker an opponent controls is dealt excess noncombat damage, Toralf deals damage equal to the excess to any target other than that permanent.', '5/4', "Toralf's Hammer", '{1}{R}', 'Legendary Artifact — Equipment', 'Equipped creature has “{1}{R}, {T}, Unattach Toralf’s Hammer: It deals 3 damage to any target. Return Toralf’s Hammer to its owner’s hand.”', 'Equipped creature gets +3/+0 as long as it’s legendary.', 'Equip {1}{R}'])</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is one mana from a snow source.)'])</t>
+          <t>('Tundra Fumarole', ['{1}{R}{R}', 'Snow Sorcery', 'Tundra Fumarole deals 4 damage to target creature or planeswalker. Add {C} for each {S} spent to cast this spell. Until end of turn, you don’t lose this mana as steps and phases end. ({S} is mana from a snow source.)'])</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valyrie.', '1/3'])</t>
+          <t>('Youthful Valkyrie', ['{1}{W}', 'Creature — Angel', 'Flying', 'Whenever another Angel enters the battlefield under your control, put a +1/+1 counter on Youthful Valkyrie.', '1/3'])</t>
         </is>
       </c>
     </row>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim (KHM).xlsx
@@ -1886,7 +1886,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or greater cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or a permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
+          <t>('Reidane, God of the Worthy', ['{2}{W}', 'Legendary Creature — God', 'Flying, vigilance', 'Snow lands your opponents control enter the battlefield tapped.', 'Noncreature spells your opponents cast with converted mana cost 4 or greater cost {2} more to cast.', '2/3', "Valkmira, Protector's Shield", '{3}{W}', 'Legendary Artifact', 'If a source an opponent controls would deal damage to you or a permanent you control, prevent 1 of that damage.', 'Whenever you or another permanent you control becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
